--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="745" firstSheet="28" activeTab="30"/>
+    <workbookView windowWidth="11520" windowHeight="9155" tabRatio="745" firstSheet="32" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="246">
   <si>
     <t>15\14</t>
   </si>
@@ -932,13 +932,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -952,9 +945,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,7 +982,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,8 +995,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,24 +1037,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1038,22 +1054,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,37 +1276,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,7 +1324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,19 +1348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,7 +1360,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,13 +1390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,7 +1402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,37 +1414,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,21 +1469,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1527,6 +1512,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1564,148 +1564,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="63" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="63" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="60" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="51" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="60" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="52" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -47525,10 +47525,10 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+      <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -50387,6 +50387,23 @@
         <v>-3</v>
       </c>
       <c r="E168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>20048</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>-54</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169">
         <v>2</v>
       </c>
     </row>
@@ -50801,14 +50818,14 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J114" sqref="J114"/>
+      <selection pane="bottomRight" activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -53274,6 +53291,29 @@
       </c>
       <c r="I114">
         <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>20048</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="I115">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -53291,12 +53331,12 @@
   <sheetPr/>
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J108" sqref="J108"/>
+      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -56496,25 +56536,25 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>5</v>
-      </c>
-      <c r="D106">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
       </c>
       <c r="E106">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F106">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G106">
+        <v>28</v>
+      </c>
+      <c r="H106" t="s">
         <v>25</v>
       </c>
-      <c r="H106">
-        <v>5</v>
-      </c>
-      <c r="I106">
-        <v>6</v>
+      <c r="I106" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -59388,19 +59428,19 @@
         <v>7</v>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E95">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F95">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G95">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I95">
         <v>11</v>
@@ -59422,11 +59462,11 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K97" sqref="K97"/>
+      <selection pane="bottomRight" activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -62518,22 +62558,22 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>7</v>
-      </c>
-      <c r="D103">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>102</v>
       </c>
       <c r="E103">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F103">
+        <v>25</v>
+      </c>
+      <c r="G103">
         <v>26</v>
       </c>
-      <c r="G103">
-        <v>32</v>
-      </c>
       <c r="H103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I103">
         <v>6</v>
@@ -62969,7 +63009,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -65581,7 +65621,7 @@
       <c r="C88">
         <v>6</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>9</v>
       </c>
       <c r="E88">
@@ -65619,7 +65659,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -68232,13 +68272,13 @@
       <c r="B88">
         <v>3</v>
       </c>
-      <c r="C88">
-        <v>4</v>
+      <c r="C88" t="s">
+        <v>7</v>
       </c>
       <c r="D88">
         <v>13</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="4">
         <v>16</v>
       </c>
       <c r="F88">
@@ -68250,8 +68290,8 @@
       <c r="H88">
         <v>5</v>
       </c>
-      <c r="I88">
-        <v>8</v>
+      <c r="I88" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -68278,7 +68318,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -70885,8 +70925,8 @@
       <c r="B88">
         <v>3</v>
       </c>
-      <c r="C88">
-        <v>4</v>
+      <c r="C88" t="s">
+        <v>7</v>
       </c>
       <c r="D88">
         <v>19</v>
@@ -70921,12 +70961,12 @@
   <sheetPr/>
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -73550,8 +73590,8 @@
       <c r="C88">
         <v>7</v>
       </c>
-      <c r="D88">
-        <v>10</v>
+      <c r="D88" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="E88">
         <v>18</v>
@@ -73565,8 +73605,8 @@
       <c r="H88">
         <v>3</v>
       </c>
-      <c r="I88">
-        <v>10</v>
+      <c r="I88" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9155" tabRatio="745" firstSheet="32" activeTab="37"/>
+    <workbookView windowWidth="11735" windowHeight="8555" tabRatio="745" firstSheet="28" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -49,16 +49,16 @@
     <sheet name="L2-sum" sheetId="39" state="hidden" r:id="rId40"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">Fre!$A$1:$E$168</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">sum_L1!$A$1:$I$114</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">SUM_L2!$A$1:$I$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2_min!$A$1:$I$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">SUM_L3!$A$1:$I$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">Fre!$A$1:$E$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">sum_L1!$A$1:$I$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">SUM_L2!$A$1:$I$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2_min!$A$1:$I$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">SUM_L3!$A$1:$I$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">SUM_L3_HMM!$A$1:$I$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">L2_159!$A$1:$I$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">L2_309!$A$1:$I$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">L2_459!$A$1:$I$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">L2_609!$A$1:$I$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">L2_159!$A$1:$I$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">L2_309!$A$1:$I$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">L2_459!$A$1:$I$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">L2_609!$A$1:$I$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">'L2-sum'!$A$1:$I$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="246">
   <si>
     <t>15\14</t>
   </si>
@@ -813,8 +813,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -925,42 +925,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,24 +955,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,9 +985,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,11 +1046,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1276,6 +1276,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1288,169 +1444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,24 +1461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1497,17 +1479,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1547,165 +1538,174 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="63" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="60" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="60" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -47525,10 +47525,10 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="F169" sqref="F169"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -50407,8 +50407,25 @@
         <v>2</v>
       </c>
     </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>20049</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>28</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E168">
+  <autoFilter ref="A1:E170">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -50818,14 +50835,14 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I115" sqref="I115"/>
+      <selection pane="bottomRight" activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -53316,8 +53333,37 @@
         <v>4</v>
       </c>
     </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>20049</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F116" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I114">
+  <autoFilter ref="A1:I116">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -53329,14 +53375,14 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
+      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -56557,8 +56603,37 @@
         <v>102</v>
       </c>
     </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>20049</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>14</v>
+      </c>
+      <c r="D107">
+        <v>15</v>
+      </c>
+      <c r="E107" s="2">
+        <v>15</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107">
+        <v>27</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+      <c r="I107" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I106">
+  <autoFilter ref="A1:I107">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -56570,14 +56645,14 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
+      <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -59446,8 +59521,37 @@
         <v>11</v>
       </c>
     </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>20049</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96" s="2">
+        <v>3</v>
+      </c>
+      <c r="D96" s="4">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>136</v>
+      </c>
+      <c r="F96">
+        <v>21</v>
+      </c>
+      <c r="G96">
+        <v>27</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I95">
+  <autoFilter ref="A1:I96">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -59459,14 +59563,14 @@
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I101" sqref="I101"/>
+      <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -62579,8 +62683,37 @@
         <v>6</v>
       </c>
     </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>20049</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>24</v>
+      </c>
+      <c r="F104">
+        <v>28</v>
+      </c>
+      <c r="G104">
+        <v>33</v>
+      </c>
+      <c r="H104">
+        <v>4</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I103">
+  <autoFilter ref="A1:I104">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -63002,14 +63135,14 @@
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomRight" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -65640,8 +65773,37 @@
         <v>12</v>
       </c>
     </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>20049</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2">
+        <v>15</v>
+      </c>
+      <c r="F89" s="2">
+        <v>22</v>
+      </c>
+      <c r="G89">
+        <v>32</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I88">
+  <autoFilter ref="A1:I89">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -65652,14 +65814,14 @@
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomRight" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -68294,8 +68456,37 @@
         <v>102</v>
       </c>
     </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>20049</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>25</v>
+      </c>
+      <c r="F89">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s">
+        <v>32</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I88">
+  <autoFilter ref="A1:I89">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="equal" val="3"/>
@@ -68311,14 +68502,14 @@
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -70947,8 +71138,37 @@
         <v>4</v>
       </c>
     </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>20049</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="2">
+        <v>15</v>
+      </c>
+      <c r="F89">
+        <v>24</v>
+      </c>
+      <c r="G89">
+        <v>33</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I88">
+  <autoFilter ref="A1:I89">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -70959,9 +71179,9 @@
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -73609,8 +73829,37 @@
         <v>106</v>
       </c>
     </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>20049</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>21</v>
+      </c>
+      <c r="F89">
+        <v>25</v>
+      </c>
+      <c r="G89">
+        <v>26</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I88">
+  <autoFilter ref="A1:I89">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9155" tabRatio="745" firstSheet="31" activeTab="31"/>
+    <workbookView windowWidth="11520" windowHeight="9155" tabRatio="745" firstSheet="31" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="246">
   <si>
     <t>15\14</t>
   </si>
@@ -817,8 +817,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -930,9 +930,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -943,26 +943,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -975,15 +974,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,6 +1004,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -1020,31 +1019,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,15 +1057,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1281,7 +1281,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,49 +1317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,25 +1329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,36 +1342,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,13 +1365,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,12 +1459,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1466,6 +1466,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1487,8 +1511,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,199 +1566,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="50" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="58" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="53" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -48075,10 +48075,10 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -50972,6 +50972,23 @@
       </c>
       <c r="E170">
         <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>20050</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>6</v>
+      </c>
+      <c r="D171">
+        <v>8</v>
+      </c>
+      <c r="E171">
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
@@ -50994,7 +51011,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J114" sqref="J114"/>
+      <selection pane="bottomRight" activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -53425,18 +53442,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>20046</v>
       </c>
       <c r="B113">
         <v>6</v>
       </c>
+      <c r="F113" s="90" t="s">
+        <v>56</v>
+      </c>
       <c r="H113">
-        <v>3</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -53552,12 +53569,12 @@
   <sheetPr/>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A105" sqref="$A105:$XFD105"/>
+      <selection pane="bottomRight" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -56699,25 +56716,25 @@
         <v>6</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D104">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E104">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F104">
-        <v>25</v>
-      </c>
-      <c r="G104">
-        <v>29</v>
-      </c>
-      <c r="H104" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="G104" s="4">
+        <v>30</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -74861,13 +74878,13 @@
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="3.66666666666667" customWidth="1"/>
@@ -74902,10 +74919,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>20047</v>
+        <v>20046</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -74913,106 +74930,135 @@
       <c r="D2">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>12</v>
+      <c r="E2" s="4">
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>19</v>
-      </c>
-      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4">
         <v>30</v>
       </c>
       <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>20048</v>
+        <v>20047</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10</v>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>20049</v>
+        <v>20048</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>155</v>
+      <c r="F4">
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4">
-        <v>12</v>
+      <c r="I4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
+        <v>20049</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>20050</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="4">
         <v>14</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>28</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>8</v>
       </c>
     </row>
@@ -75025,10 +75071,10 @@
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -75067,71 +75113,71 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>20047</v>
+        <v>20046</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="3">
-        <v>22</v>
-      </c>
-      <c r="G2">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4">
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>86</v>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>20048</v>
+        <v>20047</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="3">
         <v>22</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
-      <c r="I3">
-        <v>89</v>
+      <c r="I3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>20049</v>
+        <v>20048</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -75139,50 +75185,79 @@
       <c r="E4">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3">
-        <v>30</v>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>27</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
+        <v>20049</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>20050</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
         <v>16</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>28</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="8:8">
-      <c r="H10" s="2"/>
+    <row r="11" spans="8:8">
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -75193,13 +75268,13 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="6" width="3.66666666666667" customWidth="1"/>
@@ -75232,117 +75307,146 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>20047</v>
+        <v>20046</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>20048</v>
+        <v>20047</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="H3" s="4">
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>20049</v>
+        <v>20048</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>31</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
+        <v>20049</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>20050</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>114</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>7</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>7</v>
       </c>
     </row>
@@ -75355,13 +75459,13 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="9" width="3.66666666666667" customWidth="1"/>
@@ -75392,71 +75496,71 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>20047</v>
+        <v>20046</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>14</v>
-      </c>
-      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="E2">
         <v>24</v>
       </c>
-      <c r="G2">
-        <v>30</v>
+      <c r="F2" s="4">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3">
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>86</v>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>20048</v>
+        <v>20047</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>30</v>
       </c>
       <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>20049</v>
+        <v>20048</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -75465,44 +75569,73 @@
         <v>19</v>
       </c>
       <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3">
+        <v>25</v>
+      </c>
+      <c r="G4">
         <v>30</v>
       </c>
       <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>20050</v>
+        <v>20049</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>19</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>20050</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3">
         <v>22</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>32</v>
       </c>
-      <c r="H5" s="4">
-        <v>6</v>
-      </c>
-      <c r="I5">
+      <c r="H6" s="4">
+        <v>6</v>
+      </c>
+      <c r="I6">
         <v>11</v>
       </c>
     </row>
@@ -75515,19 +75648,18 @@
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="6.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="4.22222222222222" customWidth="1"/>
-    <col min="4" max="4" width="3.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.22222222222222" customWidth="1"/>
+    <col min="4" max="5" width="6.22222222222222" customWidth="1"/>
     <col min="6" max="9" width="3.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -75556,117 +75688,146 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>20047</v>
+        <v>20046</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
       <c r="E2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>20048</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
+        <v>20047</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>102</v>
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>20049</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>20048</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
+        <v>20049</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>20050</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>22</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>30</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
         <v>7</v>
       </c>
     </row>

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9155" tabRatio="745" firstSheet="31" activeTab="43"/>
+    <workbookView windowWidth="11520" windowHeight="9155" tabRatio="745" firstSheet="41" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -51,10 +51,13 @@
     <sheet name="L2_3" sheetId="44" r:id="rId42"/>
     <sheet name="L2_4" sheetId="43" r:id="rId43"/>
     <sheet name="L2_5" sheetId="45" r:id="rId44"/>
-    <sheet name="L2-sum" sheetId="39" state="hidden" r:id="rId45"/>
+    <sheet name="L2_6" sheetId="46" r:id="rId45"/>
+    <sheet name="L2_7" sheetId="47" r:id="rId46"/>
+    <sheet name="L2_8" sheetId="48" r:id="rId47"/>
+    <sheet name="L2-sum" sheetId="39" state="hidden" r:id="rId48"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">Fre!$A$1:$E$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">Fre!$A$1:$E$171</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">sum_L1!$A$1:$I$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2!$A$1:$I$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">SUM_L2_min!$A$1:$I$96</definedName>
@@ -64,14 +67,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">L2_309!$A$1:$I$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">L2_459!$A$1:$I$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">L2_609!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">'L2-sum'!$A$1:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">'L2-sum'!$A$1:$I$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="247">
   <si>
     <t>15\14</t>
   </si>
@@ -799,6 +802,9 @@
     <t>\20</t>
   </si>
   <si>
+    <t>20051,</t>
+  </si>
+  <si>
     <t>pre</t>
   </si>
   <si>
@@ -929,13 +935,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -950,33 +950,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1004,9 +981,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,16 +1039,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,16 +1064,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,6 +1075,14 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1281,7 +1287,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1311,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,43 +1419,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,109 +1455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,39 +1477,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1536,6 +1514,45 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1555,162 +1572,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="51" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="63" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="54" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="54" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="58" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="53" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -50992,7 +50998,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E170">
+  <autoFilter ref="A1:E171">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -53567,14 +53573,14 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G104" sqref="G104"/>
+      <selection pane="bottomRight" activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -56851,6 +56857,35 @@
       </c>
       <c r="I108" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>20051</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <v>29</v>
+      </c>
+      <c r="G109">
+        <v>29</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -74878,13 +74913,13 @@
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="3.66666666666667" customWidth="1"/>
@@ -75062,6 +75097,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -75074,7 +75138,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -75256,6 +75320,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>20051</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+    </row>
     <row r="11" spans="8:8">
       <c r="H11" s="2"/>
     </row>
@@ -75268,13 +75361,13 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="6" width="3.66666666666667" customWidth="1"/>
@@ -75450,6 +75543,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>20051</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -75459,13 +75581,13 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="9" width="3.66666666666667" customWidth="1"/>
@@ -75637,6 +75759,35 @@
       </c>
       <c r="I6">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>20051</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -75648,13 +75799,13 @@
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="6.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
@@ -75831,6 +75982,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>20051</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -75838,6 +76018,147 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>20051</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>20051</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="4" width="2.66666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>20051</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I6"/>
@@ -75889,20 +76210,20 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
         <v>459</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G2" s="1">
         <v>609</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -75930,7 +76251,7 @@
         <v>409</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -75947,13 +76268,13 @@
         <v>309</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G4" s="1">
         <v>609</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I4">
         <v>459</v>
@@ -75976,7 +76297,7 @@
         <v>309</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9155" tabRatio="745" firstSheet="41" activeTab="46"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="745" firstSheet="28" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -59,7 +59,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">Fre!$A$1:$E$171</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">sum_L1!$A$1:$I$117</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2!$A$1:$I$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2!$A$1:$I$109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">SUM_L2_min!$A$1:$I$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">SUM_L3!$A$1:$I$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">SUM_L3_HMM!$A$1:$I$20</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="247">
   <si>
     <t>15\14</t>
   </si>
@@ -751,6 +751,9 @@
     <t>-.-'2</t>
   </si>
   <si>
+    <t>20051,</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
@@ -802,9 +805,6 @@
     <t>\20</t>
   </si>
   <si>
-    <t>20051,</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
@@ -822,10 +822,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -935,14 +935,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -952,59 +944,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,7 +965,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,10 +1009,34 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1063,7 +1056,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1077,14 +1085,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -1095,13 +1095,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,7 +1287,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,25 +1395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,43 +1425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,61 +1437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,19 +1455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,41 +1472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1549,11 +1514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1572,163 +1543,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="51" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="50" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="63" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="54" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="54" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -47597,23 +47597,23 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>204</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -51010,14 +51010,14 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I113" sqref="I113"/>
+      <selection pane="bottomRight" activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -53557,6 +53557,26 @@
         <v>1</v>
       </c>
       <c r="I117" s="90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" s="90" t="s">
         <v>58</v>
       </c>
     </row>
@@ -53580,7 +53600,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J109" sqref="J109"/>
+      <selection pane="bottomRight" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -53596,25 +53616,25 @@
   <sheetData>
     <row r="1" spans="3:12">
       <c r="C1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L1">
         <f>SUM(J:J)</f>
@@ -53632,16 +53652,16 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E2" s="26">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H2" s="27">
         <v>5</v>
@@ -53792,7 +53812,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -54255,7 +54275,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J21" s="1">
         <v>-2</v>
@@ -55657,7 +55677,7 @@
       <c r="E67">
         <v>17</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="2">
         <v>19</v>
       </c>
       <c r="G67" t="s">
@@ -55692,7 +55712,7 @@
       <c r="G68">
         <v>28</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="2">
         <v>6</v>
       </c>
       <c r="I68">
@@ -55715,7 +55735,7 @@
       <c r="E69">
         <v>14</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="2">
         <v>23</v>
       </c>
       <c r="G69">
@@ -55735,7 +55755,7 @@
       <c r="B70">
         <v>3</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="2">
         <v>6</v>
       </c>
       <c r="D70">
@@ -55799,7 +55819,7 @@
       <c r="D72">
         <v>10</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="2">
         <v>17</v>
       </c>
       <c r="F72" s="3">
@@ -55918,7 +55938,7 @@
       <c r="E76">
         <v>21</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="2">
         <v>26</v>
       </c>
       <c r="G76">
@@ -56035,7 +56055,7 @@
         <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G80">
         <v>29</v>
@@ -56066,7 +56086,7 @@
       <c r="F81">
         <v>25</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="2">
         <v>26</v>
       </c>
       <c r="H81" t="s">
@@ -56095,7 +56115,7 @@
       <c r="F82">
         <v>20</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="2">
         <v>24</v>
       </c>
       <c r="H82" t="s">
@@ -56118,7 +56138,7 @@
       <c r="D83" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F83" t="s">
@@ -56127,7 +56147,7 @@
       <c r="G83">
         <v>32</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="2">
         <v>7</v>
       </c>
       <c r="I83">
@@ -56199,7 +56219,7 @@
       <c r="B86">
         <v>6</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86">
@@ -56211,7 +56231,7 @@
       <c r="F86">
         <v>27</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="2">
         <v>28</v>
       </c>
       <c r="H86">
@@ -56246,7 +56266,7 @@
       <c r="H87" s="3">
         <v>7</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I87" s="2">
         <v>7</v>
       </c>
     </row>
@@ -56318,7 +56338,7 @@
       <c r="C90" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="2">
         <v>9</v>
       </c>
       <c r="E90" t="s">
@@ -56350,10 +56370,10 @@
       <c r="D91">
         <v>15</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="2">
         <v>19</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="2">
         <v>19</v>
       </c>
       <c r="G91">
@@ -56475,7 +56495,7 @@
       <c r="G95">
         <v>30</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="2">
         <v>5</v>
       </c>
       <c r="I95">
@@ -56559,7 +56579,7 @@
       <c r="F98">
         <v>24</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="2">
         <v>28</v>
       </c>
       <c r="H98">
@@ -56669,10 +56689,10 @@
       <c r="D102">
         <v>14</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="2">
         <v>22</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="2">
         <v>30</v>
       </c>
       <c r="G102">
@@ -56681,7 +56701,7 @@
       <c r="H102">
         <v>6</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I102" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -56733,7 +56753,7 @@
       <c r="F104">
         <v>20</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="2">
         <v>30</v>
       </c>
       <c r="H104">
@@ -56765,7 +56785,7 @@
       <c r="G105">
         <v>29</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="2">
         <v>6</v>
       </c>
       <c r="I105">
@@ -56846,7 +56866,7 @@
       <c r="E108">
         <v>19</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="2">
         <v>26</v>
       </c>
       <c r="G108">
@@ -56866,11 +56886,11 @@
       <c r="B109">
         <v>3</v>
       </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-      <c r="D109">
-        <v>6</v>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
       </c>
       <c r="E109">
         <v>14</v>
@@ -56889,7 +56909,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I108">
+  <autoFilter ref="A1:I109">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -56924,25 +56944,25 @@
   <sheetData>
     <row r="1" spans="3:12">
       <c r="C1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L1">
         <f>SUM(J:J)</f>
@@ -57198,7 +57218,7 @@
       <c r="H9" s="22">
         <v>4</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <v>11</v>
       </c>
       <c r="J9">
@@ -57314,7 +57334,7 @@
       <c r="D13">
         <v>10</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>20</v>
       </c>
       <c r="F13">
@@ -57353,7 +57373,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -57381,11 +57401,11 @@
       <c r="E15">
         <v>18</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H15" s="1">
         <v>4</v>
@@ -57509,7 +57529,7 @@
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>25</v>
       </c>
       <c r="G19">
@@ -58633,7 +58653,7 @@
       <c r="E56">
         <v>18</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="2">
         <v>19</v>
       </c>
       <c r="G56">
@@ -58659,7 +58679,7 @@
       <c r="D57">
         <v>15</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="2">
         <v>17</v>
       </c>
       <c r="F57">
@@ -58700,7 +58720,7 @@
       <c r="H58">
         <v>5</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -58798,7 +58818,7 @@
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="2">
         <v>7</v>
       </c>
       <c r="D62">
@@ -58810,7 +58830,7 @@
       <c r="F62" s="3">
         <v>24</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="2">
         <v>24</v>
       </c>
       <c r="H62" s="3">
@@ -58920,7 +58940,7 @@
       <c r="D66">
         <v>15</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="2">
         <v>23</v>
       </c>
       <c r="F66">
@@ -59045,7 +59065,7 @@
       <c r="G70" t="s">
         <v>132</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="2">
         <v>6</v>
       </c>
       <c r="I70">
@@ -59135,7 +59155,7 @@
       <c r="H73">
         <v>4</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="2">
         <v>8</v>
       </c>
     </row>
@@ -59155,11 +59175,11 @@
       <c r="E74">
         <v>17</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="2">
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H74" t="s">
         <v>7</v>
@@ -59233,7 +59253,7 @@
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="2">
         <v>8</v>
       </c>
       <c r="D77">
@@ -59248,7 +59268,7 @@
       <c r="G77">
         <v>22</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="2">
         <v>6</v>
       </c>
       <c r="I77">
@@ -59364,7 +59384,7 @@
       <c r="G81" t="s">
         <v>35</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="2">
         <v>4</v>
       </c>
       <c r="I81">
@@ -59393,7 +59413,7 @@
       <c r="G82" s="3">
         <v>28</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="2">
         <v>4</v>
       </c>
       <c r="I82">
@@ -59416,7 +59436,7 @@
       <c r="E83">
         <v>13</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="2">
         <v>26</v>
       </c>
       <c r="G83">
@@ -59436,7 +59456,7 @@
       <c r="B84">
         <v>6</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="2">
         <v>4</v>
       </c>
       <c r="D84">
@@ -59452,7 +59472,7 @@
         <v>31</v>
       </c>
       <c r="H84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I84">
         <v>10</v>
@@ -59494,7 +59514,7 @@
       <c r="B86">
         <v>3</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="2">
         <v>5</v>
       </c>
       <c r="D86">
@@ -59642,19 +59662,19 @@
       <c r="C91" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="4">
         <v>13</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="4">
         <v>16</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="2">
         <v>22</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="4">
         <v>32</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="2">
         <v>5</v>
       </c>
       <c r="I91">
@@ -59787,7 +59807,7 @@
       <c r="C96" s="3">
         <v>3</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="2">
         <v>15</v>
       </c>
       <c r="E96" t="s">
@@ -60527,7 +60547,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -60709,7 +60729,7 @@
       <c r="C28">
         <v>6</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>7</v>
       </c>
       <c r="E28" s="6">
@@ -61824,7 +61844,7 @@
       <c r="E65">
         <v>9</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="2">
         <v>17</v>
       </c>
       <c r="G65">
@@ -61856,7 +61876,7 @@
       <c r="F66">
         <v>24</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="4">
         <v>31</v>
       </c>
       <c r="H66">
@@ -61873,7 +61893,7 @@
       <c r="B67">
         <v>3</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="2">
         <v>6</v>
       </c>
       <c r="D67">
@@ -61975,7 +61995,7 @@
       <c r="G70">
         <v>29</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="2">
         <v>7</v>
       </c>
       <c r="I70">
@@ -62004,7 +62024,7 @@
       <c r="G71">
         <v>32</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="2">
         <v>2</v>
       </c>
       <c r="I71">
@@ -62018,10 +62038,10 @@
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" s="4">
-        <v>6</v>
-      </c>
-      <c r="D72" s="4">
+      <c r="C72" s="2">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2">
         <v>10</v>
       </c>
       <c r="E72">
@@ -62118,7 +62138,7 @@
         <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H75" s="3">
         <v>5</v>
@@ -62178,7 +62198,7 @@
       <c r="G77">
         <v>30</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="2">
         <v>3</v>
       </c>
       <c r="I77">
@@ -62221,10 +62241,10 @@
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79" s="4">
-        <v>5</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="2">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E79">
@@ -62349,7 +62369,7 @@
       <c r="F83">
         <v>23</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="2">
         <v>28</v>
       </c>
       <c r="H83">
@@ -62494,7 +62514,7 @@
       <c r="F88">
         <v>21</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="2">
         <v>31</v>
       </c>
       <c r="H88">
@@ -62598,7 +62618,7 @@
       <c r="B92">
         <v>6</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="2">
         <v>4</v>
       </c>
       <c r="D92">
@@ -62613,7 +62633,7 @@
       <c r="G92">
         <v>32</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="2">
         <v>5</v>
       </c>
       <c r="I92">
@@ -62726,7 +62746,7 @@
       <c r="F96">
         <v>24</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="2">
         <v>29</v>
       </c>
       <c r="H96">
@@ -62746,7 +62766,7 @@
       <c r="C97">
         <v>1</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="2">
         <v>11</v>
       </c>
       <c r="E97">
@@ -62865,7 +62885,7 @@
       <c r="D101">
         <v>10</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="2">
         <v>15</v>
       </c>
       <c r="F101">
@@ -63033,7 +63053,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -63549,7 +63569,7 @@
       <c r="E5">
         <v>13</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>27</v>
       </c>
       <c r="G5">
@@ -64335,7 +64355,7 @@
         <v>16</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G30" s="5">
         <v>23</v>
@@ -64911,7 +64931,7 @@
       <c r="D50">
         <v>13</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="2">
         <v>17</v>
       </c>
       <c r="F50">
@@ -65027,10 +65047,10 @@
       <c r="D54">
         <v>16</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="2">
         <v>17</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="2">
         <v>21</v>
       </c>
       <c r="G54">
@@ -65059,7 +65079,7 @@
       <c r="E55">
         <v>17</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="2">
         <v>26</v>
       </c>
       <c r="G55">
@@ -65108,7 +65128,7 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>6</v>
       </c>
       <c r="D57">
@@ -65294,7 +65314,7 @@
       <c r="F63">
         <v>24</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="2">
         <v>26</v>
       </c>
       <c r="H63" t="s">
@@ -65381,7 +65401,7 @@
       <c r="F66">
         <v>24</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="2">
         <v>26</v>
       </c>
       <c r="H66">
@@ -65398,7 +65418,7 @@
       <c r="B67">
         <v>3</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="2">
         <v>7</v>
       </c>
       <c r="D67" t="s">
@@ -65439,7 +65459,7 @@
       <c r="F68">
         <v>15</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="2">
         <v>28</v>
       </c>
       <c r="H68" t="s">
@@ -65474,7 +65494,7 @@
       <c r="H69">
         <v>5</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="2">
         <v>7</v>
       </c>
     </row>
@@ -65514,7 +65534,7 @@
       <c r="B71">
         <v>6</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D71">
@@ -65578,7 +65598,7 @@
       <c r="D73">
         <v>17</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="2">
         <v>19</v>
       </c>
       <c r="F73">
@@ -65610,7 +65630,7 @@
       <c r="E74">
         <v>15</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="2">
         <v>20</v>
       </c>
       <c r="G74">
@@ -65639,11 +65659,11 @@
       <c r="E75" t="s">
         <v>155</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="2">
         <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -65785,7 +65805,7 @@
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G80" t="s">
         <v>8</v>
@@ -65816,7 +65836,7 @@
       <c r="F81">
         <v>24</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="2">
         <v>29</v>
       </c>
       <c r="H81" s="3">
@@ -65836,7 +65856,7 @@
       <c r="C82" s="3">
         <v>3</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E82">
@@ -65868,14 +65888,14 @@
       <c r="D83">
         <v>11</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="2">
         <v>13</v>
       </c>
       <c r="F83">
         <v>25</v>
       </c>
       <c r="G83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H83" t="s">
         <v>33</v>
@@ -66092,25 +66112,25 @@
   <sheetData>
     <row r="1" spans="3:12">
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L1">
         <f>SUM(J:J)</f>
@@ -66136,7 +66156,7 @@
       <c r="F2">
         <v>21</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>23</v>
       </c>
       <c r="H2">
@@ -66235,7 +66255,7 @@
       <c r="G5" s="3">
         <v>35</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
       <c r="I5">
@@ -66325,7 +66345,7 @@
       <c r="E8">
         <v>19</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>23</v>
       </c>
       <c r="G8" s="1">
@@ -66354,7 +66374,7 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>25</v>
       </c>
       <c r="F9">
@@ -67620,19 +67640,19 @@
       <c r="C51">
         <v>12</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="D51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
         <v>19</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="4">
         <v>28</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="4">
         <v>29</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="4">
         <v>6</v>
       </c>
       <c r="I51" s="3">
@@ -67742,7 +67762,7 @@
       <c r="E55">
         <v>17</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="2">
         <v>24</v>
       </c>
       <c r="G55">
@@ -67771,7 +67791,7 @@
       <c r="E56">
         <v>16</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="2">
         <v>19</v>
       </c>
       <c r="G56">
@@ -67823,13 +67843,13 @@
       <c r="C58">
         <v>5</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="2">
         <v>9</v>
       </c>
       <c r="E58">
         <v>13</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="2">
         <v>26</v>
       </c>
       <c r="G58">
@@ -67948,10 +67968,10 @@
       <c r="F62" s="3">
         <v>28</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="2">
         <v>28</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="2">
         <v>3</v>
       </c>
       <c r="I62">
@@ -67980,7 +68000,7 @@
       <c r="G63">
         <v>27</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="2">
         <v>6</v>
       </c>
       <c r="I63">
@@ -68058,7 +68078,7 @@
       <c r="D66">
         <v>10</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="2">
         <v>15</v>
       </c>
       <c r="F66">
@@ -68070,7 +68090,7 @@
       <c r="H66">
         <v>2</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="2">
         <v>8</v>
       </c>
     </row>
@@ -68081,7 +68101,7 @@
       <c r="B67">
         <v>3</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="2">
         <v>7</v>
       </c>
       <c r="D67">
@@ -68148,7 +68168,7 @@
       <c r="E69">
         <v>15</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="2">
         <v>17</v>
       </c>
       <c r="G69">
@@ -68157,7 +68177,7 @@
       <c r="H69">
         <v>6</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="2">
         <v>7</v>
       </c>
     </row>
@@ -68168,7 +68188,7 @@
       <c r="B70">
         <v>3</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="2">
         <v>8</v>
       </c>
       <c r="D70">
@@ -68186,7 +68206,7 @@
       <c r="H70" s="3">
         <v>5</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="2">
         <v>5</v>
       </c>
     </row>
@@ -68197,10 +68217,10 @@
       <c r="B71">
         <v>6</v>
       </c>
-      <c r="C71" s="4">
-        <v>5</v>
-      </c>
-      <c r="D71" s="4">
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2">
         <v>15</v>
       </c>
       <c r="E71">
@@ -68264,7 +68284,7 @@
       <c r="E73">
         <v>17</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="2">
         <v>19</v>
       </c>
       <c r="G73">
@@ -68357,7 +68377,7 @@
       <c r="G76">
         <v>31</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="2">
         <v>7</v>
       </c>
       <c r="I76" t="s">
@@ -68499,10 +68519,10 @@
       <c r="F81">
         <v>24</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="2">
         <v>29</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="2">
         <v>7</v>
       </c>
       <c r="I81">
@@ -68516,7 +68536,7 @@
       <c r="B82">
         <v>3</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="2">
         <v>4</v>
       </c>
       <c r="D82">
@@ -68531,7 +68551,7 @@
       <c r="G82" t="s">
         <v>10</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="2">
         <v>6</v>
       </c>
       <c r="I82">
@@ -68584,7 +68604,7 @@
         <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G84" s="3">
         <v>30</v>
@@ -68644,7 +68664,7 @@
       <c r="F86">
         <v>22</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="2">
         <v>30</v>
       </c>
       <c r="H86">
@@ -68670,10 +68690,10 @@
       <c r="E87">
         <v>19</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="2">
         <v>27</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="2">
         <v>28</v>
       </c>
       <c r="H87" s="3">
@@ -68696,7 +68716,7 @@
       <c r="D88">
         <v>13</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="2">
         <v>16</v>
       </c>
       <c r="F88">
@@ -68779,25 +68799,25 @@
   <sheetData>
     <row r="1" spans="3:12">
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L1">
         <f>SUBTOTAL(9,J:J)</f>
@@ -68820,7 +68840,7 @@
       <c r="E2">
         <v>15</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>23</v>
       </c>
       <c r="G2">
@@ -68861,7 +68881,7 @@
       <c r="H3">
         <v>4</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>8</v>
       </c>
       <c r="J3">
@@ -70253,7 +70273,7 @@
       <c r="F49">
         <v>20</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="2">
         <v>24</v>
       </c>
       <c r="H49" t="s">
@@ -70337,10 +70357,10 @@
       <c r="E52">
         <v>15</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="2">
         <v>18</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="2">
         <v>32</v>
       </c>
       <c r="H52">
@@ -70392,7 +70412,7 @@
       <c r="D54">
         <v>11</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="2">
         <v>17</v>
       </c>
       <c r="F54">
@@ -70473,7 +70493,7 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>6</v>
       </c>
       <c r="D57">
@@ -70537,7 +70557,7 @@
       <c r="D59">
         <v>7</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="2">
         <v>12</v>
       </c>
       <c r="F59">
@@ -70628,7 +70648,7 @@
         <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G62">
         <v>32</v>
@@ -70676,7 +70696,7 @@
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="2">
         <v>6</v>
       </c>
       <c r="D64">
@@ -70714,7 +70734,7 @@
       <c r="E65">
         <v>18</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="2">
         <v>21</v>
       </c>
       <c r="G65">
@@ -70778,7 +70798,7 @@
       <c r="G67">
         <v>27</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="2">
         <v>9</v>
       </c>
       <c r="I67">
@@ -70824,7 +70844,7 @@
       <c r="C69">
         <v>5</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="2">
         <v>11</v>
       </c>
       <c r="E69" t="s">
@@ -70839,7 +70859,7 @@
       <c r="H69">
         <v>4</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="2">
         <v>7</v>
       </c>
     </row>
@@ -70856,19 +70876,19 @@
       <c r="D70" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="2">
         <v>8</v>
       </c>
       <c r="F70">
         <v>16</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="2">
         <v>27</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="2">
         <v>5</v>
       </c>
     </row>
@@ -70998,7 +71018,7 @@
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E75">
@@ -71053,7 +71073,7 @@
       <c r="B77">
         <v>6</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="2">
         <v>4</v>
       </c>
       <c r="D77">
@@ -71068,7 +71088,7 @@
       <c r="G77">
         <v>32</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="2">
         <v>5</v>
       </c>
       <c r="I77">
@@ -71175,7 +71195,7 @@
       <c r="D81">
         <v>9</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="2">
         <v>13</v>
       </c>
       <c r="F81">
@@ -71233,7 +71253,7 @@
       <c r="D83">
         <v>7</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="2">
         <v>13</v>
       </c>
       <c r="F83">
@@ -71271,7 +71291,7 @@
       <c r="G84" s="3">
         <v>30</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="2">
         <v>5</v>
       </c>
       <c r="I84">
@@ -71285,7 +71305,7 @@
       <c r="B85">
         <v>3</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="2">
         <v>9</v>
       </c>
       <c r="D85">
@@ -71294,7 +71314,7 @@
       <c r="E85">
         <v>13</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="2">
         <v>16</v>
       </c>
       <c r="G85">
@@ -71323,7 +71343,7 @@
       <c r="E86">
         <v>16</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="2">
         <v>24</v>
       </c>
       <c r="G86">
@@ -71349,7 +71369,7 @@
       <c r="D87">
         <v>11</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="2">
         <v>18</v>
       </c>
       <c r="F87">
@@ -71456,25 +71476,25 @@
   <sheetData>
     <row r="1" spans="3:12">
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L1">
         <f>SUM(J:J)</f>
@@ -71599,7 +71619,7 @@
       <c r="G5">
         <v>31</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
       <c r="I5">
@@ -71616,7 +71636,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>7</v>
       </c>
       <c r="D6">
@@ -71628,16 +71648,16 @@
       <c r="F6">
         <v>23</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>34</v>
       </c>
-      <c r="H6" s="2">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="4">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4">
         <v>8</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>-2</v>
       </c>
     </row>
@@ -71663,13 +71683,13 @@
       <c r="G7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="2">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
         <v>9</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>-2</v>
       </c>
     </row>
@@ -73028,7 +73048,7 @@
       <c r="E52">
         <v>12</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="2">
         <v>18</v>
       </c>
       <c r="G52">
@@ -73115,7 +73135,7 @@
       <c r="E55">
         <v>20</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="2">
         <v>23</v>
       </c>
       <c r="G55">
@@ -73164,7 +73184,7 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>7</v>
       </c>
       <c r="D57">
@@ -73289,7 +73309,7 @@
       <c r="E61">
         <v>16</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="2">
         <v>24</v>
       </c>
       <c r="G61" s="3">
@@ -73550,7 +73570,7 @@
       <c r="E70" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="2">
         <v>17</v>
       </c>
       <c r="G70" t="s">
@@ -73612,7 +73632,7 @@
         <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -73701,7 +73721,7 @@
       <c r="G75" t="s">
         <v>44</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="2">
         <v>4</v>
       </c>
       <c r="I75">
@@ -73724,7 +73744,7 @@
       <c r="E76">
         <v>17</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="2">
         <v>26</v>
       </c>
       <c r="G76">
@@ -73747,7 +73767,7 @@
       <c r="C77">
         <v>8</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="2">
         <v>10</v>
       </c>
       <c r="E77">
@@ -73898,7 +73918,7 @@
       <c r="E82">
         <v>9</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="2">
         <v>22</v>
       </c>
       <c r="G82">
@@ -73924,7 +73944,7 @@
       <c r="D83">
         <v>11</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="2">
         <v>13</v>
       </c>
       <c r="F83">
@@ -74066,7 +74086,7 @@
       <c r="C88">
         <v>7</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E88">
@@ -74916,7 +74936,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -74965,13 +74985,13 @@
       <c r="D2">
         <v>7</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>15</v>
       </c>
       <c r="F2">
         <v>22</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>30</v>
       </c>
       <c r="H2">
@@ -75078,10 +75098,10 @@
       <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>14</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>22</v>
       </c>
       <c r="F6" t="s">
@@ -75099,15 +75119,15 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
         <v>9</v>
       </c>
       <c r="E7">
@@ -75122,8 +75142,8 @@
       <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>8</v>
+      <c r="I7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -75138,7 +75158,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -75194,7 +75214,7 @@
       <c r="F2">
         <v>20</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>30</v>
       </c>
       <c r="H2">
@@ -75298,13 +75318,13 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>16</v>
       </c>
       <c r="F6">
@@ -75327,7 +75347,7 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>7</v>
       </c>
       <c r="D7">
@@ -75345,12 +75365,12 @@
       <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7">
-        <v>8</v>
+      <c r="I7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="8:8">
-      <c r="H11" s="2"/>
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -75364,7 +75384,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -75449,7 +75469,7 @@
       <c r="G3">
         <v>32</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>6</v>
       </c>
       <c r="I3">
@@ -75466,7 +75486,7 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>15</v>
       </c>
       <c r="E4">
@@ -75550,11 +75570,11 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
       </c>
       <c r="E7">
         <v>14</v>
@@ -75584,7 +75604,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -75632,7 +75652,7 @@
       <c r="E2">
         <v>24</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>27</v>
       </c>
       <c r="G2" s="3">
@@ -75658,7 +75678,7 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>14</v>
       </c>
       <c r="F3">
@@ -75739,7 +75759,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>14</v>
       </c>
       <c r="D6">
@@ -75754,7 +75774,7 @@
       <c r="G6">
         <v>32</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>6</v>
       </c>
       <c r="I6">
@@ -75768,7 +75788,7 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>7</v>
       </c>
       <c r="D7">
@@ -75802,7 +75822,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -75899,7 +75919,7 @@
       <c r="A4">
         <v>20048</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4">
@@ -75949,7 +75969,7 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>8</v>
       </c>
     </row>
@@ -75992,16 +76012,16 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>9</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>19</v>
       </c>
       <c r="F7">
         <v>24</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>33</v>
       </c>
       <c r="H7">
@@ -76020,14 +76040,40 @@
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="9" width="3.66666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="3:9">
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="2" spans="1:9">
       <c r="A2">
         <v>20051</v>
@@ -76035,8 +76081,8 @@
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -76053,7 +76099,7 @@
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>7</v>
       </c>
     </row>
@@ -76066,14 +76112,41 @@
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
+    <col min="3" max="9" width="3.66666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="3:9">
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="2" spans="1:9">
       <c r="A2">
         <v>20051</v>
@@ -76112,17 +76185,41 @@
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="4" width="2.66666666666667" customWidth="1"/>
+    <col min="5" max="9" width="3.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:9">
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="2" spans="1:9">
       <c r="A2">
         <v>20051</v>
@@ -76130,10 +76227,10 @@
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>9</v>
       </c>
       <c r="E2">
@@ -76148,8 +76245,8 @@
       <c r="H2">
         <v>3</v>
       </c>
-      <c r="I2">
-        <v>6</v>
+      <c r="I2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -76181,25 +76278,25 @@
   <sheetData>
     <row r="1" spans="3:9">
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9155" tabRatio="745" firstSheet="42" activeTab="47"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="745" firstSheet="28" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -67,15 +67,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">L2_459!$A$1:$I$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">L2_609!$A$1:$I$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="48" hidden="1">'L2-sum'!$A$1:$I$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">sum_L1!$A$1:$I$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2_3!$A$1:$I$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">sum_L1!$A$1:$I$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2_3!$A$1:$I$111</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="237">
   <si>
     <t>15\14</t>
   </si>
@@ -907,6 +907,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -914,7 +921,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,20 +980,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -958,23 +989,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,40 +1042,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1258,19 +1258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,13 +1270,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,7 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,49 +1312,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,19 +1354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,31 +1378,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,15 +1437,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1479,41 +1470,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1537,151 +1493,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="49" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="52" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="55" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="55" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1798,6 +1798,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -50973,14 +50974,14 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -51014,261 +51015,312 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="7:8">
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>20053</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>20054</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>20055</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>20056</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>20057</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="6:6">
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="8:8">
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="4:9">
-      <c r="D28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="C29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="3:9">
-      <c r="C31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="33" spans="3:9">
-      <c r="C33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="4:9">
-      <c r="D34" s="1"/>
+    <row r="27" spans="3:6">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="4:9">
+      <c r="D29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="1"/>
       <c r="F34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="4:8">
+    <row r="35" spans="4:9">
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="6:9">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="4:8">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="8:8">
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="4:8">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="6:9">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="8:8">
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="8:9">
+    <row r="40" spans="4:8">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="4:5">
+    </row>
+    <row r="41" spans="8:9">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="44" spans="3:7">
-      <c r="C44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="1"/>
-    </row>
-    <row r="49" spans="5:9">
-      <c r="E49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="7:7">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="50" spans="5:9">
+      <c r="E50" s="1"/>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="6:6">
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
-        <v>20054</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="3:8">
       <c r="C53" s="1"/>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="H53" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
-        <v>20055</v>
-      </c>
-      <c r="B54">
-        <v>6</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9">
-      <c r="C55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="4:7">
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="3:9">
-      <c r="C57" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="4:7">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="6:6">
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="6:9">
-      <c r="F60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="3:8">
+    </row>
+    <row r="58" spans="3:9">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="6:9">
+      <c r="F61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="3:4">
       <c r="C62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="3:8">
       <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="2:8">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="2:3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="2:5">
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
+      <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:5">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="2:9">
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="G71" s="1"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="G72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:9">
       <c r="B73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="2:2">
+      <c r="D73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="2:8">
       <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="2:8">
+      <c r="F74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="2:2">
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="2:2">
+    </row>
+    <row r="76" spans="2:8">
       <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -51280,14 +51332,14 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -51296,7 +51348,8 @@
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="5" width="3.66666666666667" customWidth="1"/>
     <col min="6" max="7" width="6.22222222222222" customWidth="1"/>
-    <col min="8" max="9" width="3.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="4.22222222222222" customWidth="1"/>
+    <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="1025" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -51330,31 +51383,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="4">
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>11</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -51362,31 +51415,31 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B3" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" s="25">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
-        <v>11</v>
-      </c>
       <c r="E3" s="2">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2">
+        <v>32</v>
       </c>
       <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -51394,60 +51447,96 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" s="25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2">
-        <v>28</v>
-      </c>
       <c r="H4" s="2">
         <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="2">
+        <v>20056</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="2">
+        <v>20057</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -51455,7 +51544,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -51595,27 +51684,27 @@
     <row r="17" spans="1:12">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -51623,13 +51712,13 @@
     <row r="19" spans="1:12">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="9"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -51637,13 +51726,13 @@
     <row r="20" spans="1:12">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -51653,12 +51742,12 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
@@ -51679,7 +51768,7 @@
     <row r="23" spans="1:12">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -52036,7 +52125,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="2"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
@@ -52309,13 +52398,13 @@
     <row r="68" spans="1:12">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -52907,6 +52996,20 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -59316,7 +59419,7 @@
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="89" t="s">
         <v>58</v>
       </c>
       <c r="D17">
@@ -59339,13 +59442,13 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="88" t="s">
+      <c r="G18" s="89" t="s">
         <v>57</v>
       </c>
       <c r="H18">
@@ -59362,10 +59465,10 @@
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="89" t="s">
         <v>56</v>
       </c>
       <c r="F19">
@@ -70930,16 +71033,18 @@
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
-    <col min="3" max="9" width="3.66666666666667" customWidth="1"/>
+    <col min="3" max="5" width="3.66666666666667" customWidth="1"/>
+    <col min="6" max="7" width="6.22222222222222" customWidth="1"/>
+    <col min="8" max="9" width="3.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9">
@@ -70967,89 +71072,147 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
+      <c r="I2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>16</v>
       </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
       <c r="G3">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
+        <v>20055</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>20056</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G4">
-        <v>35</v>
-      </c>
-      <c r="H4">
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>20057</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -71061,10 +71224,10 @@
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -71133,39 +71296,39 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2">
         <v>26</v>
       </c>
       <c r="G8" s="2">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -71173,49 +71336,107 @@
       <c r="D9" s="2">
         <v>9</v>
       </c>
-      <c r="E9" s="4">
-        <v>18</v>
+      <c r="E9" s="2">
+        <v>13</v>
       </c>
       <c r="F9" s="2">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="I9" s="2">
-        <v>6</v>
+      <c r="I9" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
+        <v>20055</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
         <v>20056</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
         <v>16</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>20</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>20</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>30</v>
       </c>
-      <c r="H10" s="2">
-        <v>4</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>20057</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -71227,13 +71448,13 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="6.66666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -71266,28 +71487,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2">
-        <v>27</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3</v>
       </c>
       <c r="I2" s="2">
         <v>9</v>
@@ -71295,60 +71516,118 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B3" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
       </c>
       <c r="E3" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
       </c>
       <c r="I3" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
+        <v>20055</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>20056</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
         <v>13</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>16</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>18</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>30</v>
       </c>
-      <c r="H4" s="2">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H5" s="4">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>20057</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -71360,13 +71639,13 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -71401,89 +71680,147 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
-        <v>14</v>
+      <c r="D2" s="2">
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="2">
-        <v>27</v>
-      </c>
       <c r="H2" s="2">
         <v>5</v>
       </c>
-      <c r="I2" s="2">
-        <v>6</v>
+      <c r="I2" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B3" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
         <v>14</v>
       </c>
-      <c r="F3" s="2">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2">
+        <v>27</v>
       </c>
       <c r="H3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
+        <v>20055</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>20056</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>14</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>21</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>28</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="4">
         <v>29</v>
       </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>20057</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -71495,13 +71832,398 @@
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="8.88888888888889" style="2"/>
+    <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.22222222222222" style="2" customWidth="1"/>
+    <col min="4" max="9" width="3.66666666666667" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9">
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>20053</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>20054</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>20055</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>20056</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>20057</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.22222222222222" style="2" customWidth="1"/>
+    <col min="4" max="6" width="6.22222222222222" style="2" customWidth="1"/>
+    <col min="7" max="9" width="3.66666666666667" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9">
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>20053</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>20054</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="2">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>20055</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>20056</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>20057</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -71534,356 +72256,147 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>13</v>
       </c>
       <c r="F2" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B3" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>11</v>
       </c>
       <c r="F3" s="2">
         <v>24</v>
       </c>
       <c r="G3" s="2">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7</v>
       </c>
       <c r="I3" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
+        <v>20055</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>20056</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
         <v>24</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G5" s="3">
+        <v>34</v>
+      </c>
+      <c r="H5" s="4">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>20057</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
         <v>27</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G6" s="2">
         <v>29</v>
       </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.22222222222222" style="2" customWidth="1"/>
-    <col min="4" max="5" width="6.22222222222222" style="2" customWidth="1"/>
-    <col min="6" max="9" width="3.66666666666667" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:9">
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2">
-        <v>20054</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="2">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2">
-        <v>20055</v>
-      </c>
-      <c r="B3" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
-        <v>20056</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="9" width="3.66666666666667" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:9">
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2">
-        <v>20054</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2">
-        <v>30</v>
-      </c>
-      <c r="H2" s="4">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2">
-        <v>20055</v>
-      </c>
-      <c r="B3" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
-        <v>20056</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2">
-        <v>7</v>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -71895,13 +72408,13 @@
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="7" width="3.66666666666667" customWidth="1"/>
@@ -71933,89 +72446,147 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>32</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>20056</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>20057</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -72027,13 +72598,13 @@
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="4" width="2.66666666666667" style="2" customWidth="1"/>
@@ -72067,22 +72638,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
         <v>23</v>
-      </c>
-      <c r="F2" s="2">
-        <v>28</v>
       </c>
       <c r="G2" s="2">
         <v>31</v>
@@ -72091,64 +72662,122 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B3" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3">
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
       </c>
       <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>20056</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>21</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>30</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>35</v>
       </c>
-      <c r="H4" s="2">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H5" s="2">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>20057</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
         <v>9</v>
       </c>
     </row>

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="745" firstSheet="41" activeTab="47"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="745" firstSheet="28" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -66,6 +66,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">L2_309!$A$1:$I$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">L2_459!$A$1:$I$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">L2_609!$A$1:$I$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">L2_7!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">L2_8!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="48" hidden="1">'L2-sum'!$A$1:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">sum_L1!$A$1:$I$119</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2_3!$A$1:$I$111</definedName>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="238">
   <si>
     <t>15\14</t>
   </si>
@@ -773,6 +775,9 @@
     <t>27\28</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>a1`</t>
   </si>
   <si>
@@ -793,9 +798,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -907,9 +912,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -921,92 +926,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,8 +954,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,6 +989,76 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1252,19 +1257,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,7 +1293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,37 +1311,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,7 +1347,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,13 +1395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,61 +1419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,17 +1445,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1460,21 +1459,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,6 +1480,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1503,13 +1498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1529,60 +1528,69 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="49" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="55" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="62" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1591,94 +1599,91 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="50" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="50" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="61" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -50982,7 +50987,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -51105,9 +51110,6 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
       <c r="F6">
         <v>1</v>
       </c>
@@ -51119,6 +51121,14 @@
       </c>
       <c r="I6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>20058</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="7:8">
@@ -51350,19 +51360,21 @@
   <sheetPr/>
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="8.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
-    <col min="3" max="5" width="3.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="3.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="6.22222222222222" customWidth="1"/>
+    <col min="5" max="5" width="3.66666666666667" customWidth="1"/>
     <col min="6" max="7" width="6.22222222222222" customWidth="1"/>
     <col min="8" max="8" width="4.22222222222222" customWidth="1"/>
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
@@ -51558,15 +51570,33 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="2">
+        <v>20058</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="26">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -71049,13 +71079,13 @@
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="5" width="3.66666666666667" customWidth="1"/>
@@ -71231,6 +71261,35 @@
         <v>87</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>20058</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -71240,10 +71299,10 @@
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -71455,6 +71514,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>20058</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -71464,13 +71552,13 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="6.66666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -71646,6 +71734,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>20058</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -71655,13 +71772,13 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -71839,6 +71956,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>20058</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -71848,13 +71994,13 @@
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -72031,6 +72177,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>20058</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -72040,13 +72215,13 @@
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="6.66666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -72224,6 +72399,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>20058</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -72233,13 +72437,13 @@
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -72415,6 +72619,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>20058</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -72424,13 +72657,13 @@
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="7" width="3.66666666666667" customWidth="1"/>
@@ -72605,7 +72838,44 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>20058</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="11:11">
+      <c r="K9" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I7">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -72614,13 +72884,13 @@
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="4" width="2.66666666666667" style="2" customWidth="1"/>
@@ -72633,7 +72903,7 @@
   <sheetData>
     <row r="1" spans="3:9">
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>46</v>
@@ -72799,7 +73069,39 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>20058</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I7">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -72857,20 +73159,20 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
         <v>459</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G2" s="1">
         <v>609</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -72898,7 +73200,7 @@
         <v>409</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -72915,13 +73217,13 @@
         <v>309</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G4" s="1">
         <v>609</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I4">
         <v>459</v>
@@ -72944,7 +73246,7 @@
         <v>309</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="745" firstSheet="28" activeTab="31"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="745" firstSheet="41" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="238">
   <si>
     <t>15\14</t>
   </si>
@@ -775,7 +775,7 @@
     <t>27\28</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>0\1</t>
   </si>
   <si>
     <t>a1`</t>
@@ -798,9 +798,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -912,7 +912,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,14 +926,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,21 +1002,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,7 +1048,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,61 +1059,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1257,6 +1257,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1275,163 +1425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,32 +1448,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1492,23 +1468,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1542,148 +1512,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="55" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="51" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="45" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="49" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="62" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="50" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="50" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="61" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -50987,7 +50987,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -51123,12 +51123,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>20058</v>
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="7:8">
@@ -51360,12 +51381,12 @@
   <sheetPr/>
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -51591,7 +51612,7 @@
       <c r="G7" s="2">
         <v>31</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>5</v>
       </c>
       <c r="I7" s="2">
@@ -71082,7 +71103,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -71274,8 +71295,8 @@
       <c r="D7">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>20</v>
+      <c r="E7" t="s">
+        <v>117</v>
       </c>
       <c r="F7">
         <v>24</v>
@@ -71283,8 +71304,8 @@
       <c r="G7">
         <v>33</v>
       </c>
-      <c r="H7">
-        <v>4</v>
+      <c r="H7" t="s">
+        <v>92</v>
       </c>
       <c r="I7">
         <v>7</v>
@@ -71302,7 +71323,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -71530,7 +71551,7 @@
       <c r="E13" s="2">
         <v>18</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>19</v>
       </c>
       <c r="G13" s="2">
@@ -71539,7 +71560,7 @@
       <c r="H13" s="2">
         <v>4</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>10</v>
       </c>
     </row>
@@ -71555,7 +71576,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -71756,8 +71777,8 @@
       <c r="G7" s="2">
         <v>31</v>
       </c>
-      <c r="H7" s="2">
-        <v>4</v>
+      <c r="H7" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="I7" s="2">
         <v>6</v>
@@ -71775,7 +71796,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -71963,23 +71984,23 @@
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
+      <c r="C7" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D7" s="2">
         <v>12</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>19</v>
       </c>
-      <c r="F7" s="2">
-        <v>25</v>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G7" s="2">
         <v>33</v>
       </c>
-      <c r="H7" s="2">
-        <v>4</v>
+      <c r="H7" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="I7" s="2">
         <v>8</v>
@@ -71997,7 +72018,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -72187,7 +72208,7 @@
       <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>15</v>
       </c>
       <c r="E7" s="2">
@@ -72199,7 +72220,7 @@
       <c r="G7" s="2">
         <v>32</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>5</v>
       </c>
       <c r="I7" s="2">
@@ -72218,7 +72239,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -72226,7 +72247,8 @@
     <col min="1" max="1" width="6.66666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="4.22222222222222" style="2" customWidth="1"/>
-    <col min="4" max="6" width="6.22222222222222" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.66666666666667" style="2" customWidth="1"/>
+    <col min="5" max="6" width="6.22222222222222" style="2" customWidth="1"/>
     <col min="7" max="9" width="3.66666666666667" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.88888888888889" style="2"/>
   </cols>
@@ -72409,13 +72431,13 @@
       <c r="C7" s="2">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>15</v>
       </c>
-      <c r="E7" s="2">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="4">
         <v>27</v>
       </c>
       <c r="G7" s="2">
@@ -72440,7 +72462,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -72635,16 +72657,16 @@
       <c r="E7" s="2">
         <v>11</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>27</v>
       </c>
       <c r="G7" s="2">
         <v>31</v>
       </c>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
         <v>10</v>
       </c>
     </row>
@@ -72657,13 +72679,13 @@
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="7" width="3.66666666666667" customWidth="1"/>
@@ -72854,7 +72876,7 @@
       <c r="E7">
         <v>17</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>26</v>
       </c>
       <c r="G7">
@@ -72865,11 +72887,6 @@
       </c>
       <c r="I7">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="11:11">
-      <c r="K9" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="745" firstSheet="41" activeTab="46"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="745" firstSheet="28" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -59,6 +59,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">Fre!$A$1:$E$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2_3!$A$1:$L$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">SUM_L2_min!$A$1:$I$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">SUM_L3!$A$1:$I$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">SUM_L3_HMM!$A$1:$I$20</definedName>
@@ -66,11 +67,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">L2_309!$A$1:$I$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">L2_459!$A$1:$I$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">L2_609!$A$1:$I$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">SUM_L2_6!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="40" hidden="1">l2_1!$A$1:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="41" hidden="1">L2_2!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">L2_3!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">L2_4!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">L2_5!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="45" hidden="1">L2_6!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">L2_7!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">L2_8!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="48" hidden="1">'L2-sum'!$A$1:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">sum_L1!$A$1:$I$119</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2_3!$A$1:$I$111</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -799,8 +806,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -912,6 +919,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -919,14 +933,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,45 +948,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,6 +964,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,16 +1014,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,21 +1064,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,7 +1264,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,13 +1408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,151 +1432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,21 +1452,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1470,15 +1481,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1513,21 +1515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1542,16 +1529,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="51" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1560,133 +1567,133 @@
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="49" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="48" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="45" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="45" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="49" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -51386,7 +51393,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -51623,15 +51630,33 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="2">
+        <v>20059</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -53079,6 +53104,9 @@
       <c r="L111" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L111">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -71100,13 +71128,13 @@
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="5" width="3.66666666666667" customWidth="1"/>
@@ -71311,7 +71339,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>20059</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I8">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -71320,10 +71380,10 @@
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -71359,212 +71419,236 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="2" spans="3:9">
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>20053</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>20054</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>20055</v>
       </c>
-      <c r="B2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>20056</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>20057</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>20053</v>
+        <v>20058</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="4">
+        <v>19</v>
       </c>
       <c r="G8" s="2">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>20054</v>
+        <v>20059</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>20055</v>
-      </c>
-      <c r="B10" s="2">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2">
-        <v>20056</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2">
-        <v>20057</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2">
-        <v>29</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2">
-        <v>20058</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2">
-        <v>18</v>
-      </c>
-      <c r="F13" s="4">
-        <v>19</v>
-      </c>
-      <c r="G13" s="2">
-        <v>25</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I9">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -71573,13 +71657,13 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="6.66666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -71784,7 +71868,39 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>20059</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I8">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -71793,13 +71909,13 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -72006,7 +72122,39 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>20059</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I8">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -72015,13 +72163,13 @@
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -72227,7 +72375,39 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>20059</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I8">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -72236,13 +72416,13 @@
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="6.66666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -72450,7 +72630,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>20059</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I8">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -72459,13 +72671,13 @@
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
@@ -72670,7 +72882,39 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>20059</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I8">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -72679,13 +72923,13 @@
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="7" width="3.66666666666667" customWidth="1"/>
@@ -72887,6 +73131,35 @@
       </c>
       <c r="I7">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>20059</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -72901,13 +73174,13 @@
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="4" width="2.66666666666667" style="2" customWidth="1"/>
@@ -73113,6 +73386,35 @@
       </c>
       <c r="I7" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>20059</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -74,8 +74,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">L2_4!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">L2_5!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="45" hidden="1">L2_6!$A$1:$I$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">L2_7!$A$1:$I$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">L2_8!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">L2_7!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">L2_8!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="48" hidden="1">'L2-sum'!$A$1:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">sum_L1!$A$1:$I$119</definedName>
   </definedNames>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="238">
   <si>
     <t>15\14</t>
   </si>
@@ -805,9 +805,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -919,27 +919,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -949,6 +928,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,6 +964,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -977,17 +985,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1000,24 +1000,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1039,15 +1024,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,6 +1041,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,37 +1264,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,7 +1312,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,25 +1372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,37 +1384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,13 +1414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,25 +1432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,6 +1467,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1481,6 +1496,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1515,30 +1539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1552,148 +1552,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="51" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="49" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="48" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -50994,7 +50994,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -51156,6 +51156,35 @@
         <v>1</v>
       </c>
       <c r="I7" s="89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>20059</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="89" t="s">
         <v>57</v>
       </c>
     </row>
@@ -51393,7 +51422,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -71131,13 +71160,15 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
-    <col min="3" max="5" width="3.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="3.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="6.22222222222222" customWidth="1"/>
+    <col min="5" max="5" width="3.66666666666667" customWidth="1"/>
     <col min="6" max="7" width="6.22222222222222" customWidth="1"/>
     <col min="8" max="9" width="3.66666666666667" customWidth="1"/>
   </cols>
@@ -71349,20 +71380,20 @@
       <c r="C8">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>16</v>
+      <c r="D8" t="s">
+        <v>136</v>
       </c>
       <c r="E8">
         <v>24</v>
       </c>
-      <c r="F8">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>31</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
       </c>
       <c r="I8">
         <v>9</v>
@@ -71383,14 +71414,16 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="2" width="2.66666666666667" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.66666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.66666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.22222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.66666666666667" style="2" customWidth="1"/>
     <col min="6" max="7" width="6.22222222222222" style="2" customWidth="1"/>
     <col min="8" max="9" width="3.66666666666667" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.88888888888889" style="2"/>
@@ -71626,8 +71659,8 @@
       <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
-        <v>14</v>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="2">
         <v>16</v>
@@ -71635,11 +71668,11 @@
       <c r="F9" s="2">
         <v>19</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>28</v>
       </c>
-      <c r="H9" s="2">
-        <v>4</v>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I9" s="2">
         <v>8</v>
@@ -71660,7 +71693,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
@@ -71890,7 +71923,7 @@
       <c r="G8" s="2">
         <v>26</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>3</v>
       </c>
       <c r="I8" s="2">
@@ -71912,7 +71945,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
@@ -72141,8 +72174,8 @@
       <c r="F8" s="2">
         <v>25</v>
       </c>
-      <c r="G8" s="2">
-        <v>31</v>
+      <c r="G8" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
@@ -72166,7 +72199,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
@@ -72394,13 +72427,13 @@
       <c r="F8" s="2">
         <v>26</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>28</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>11</v>
       </c>
     </row>
@@ -72419,7 +72452,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
@@ -72674,7 +72707,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
@@ -72889,7 +72922,7 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>-1</v>
       </c>
       <c r="D8" s="2">
@@ -72898,10 +72931,10 @@
       <c r="E8" s="2">
         <v>20</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>28</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>32</v>
       </c>
       <c r="H8" s="2">
@@ -72926,13 +72959,15 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
-    <col min="3" max="7" width="3.66666666666667" customWidth="1"/>
+    <col min="3" max="5" width="3.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="6.22222222222222" customWidth="1"/>
+    <col min="7" max="7" width="3.66666666666667" customWidth="1"/>
     <col min="8" max="9" width="4.22222222222222" customWidth="1"/>
   </cols>
   <sheetData>
@@ -73149,21 +73184,21 @@
       <c r="E8">
         <v>19</v>
       </c>
-      <c r="F8">
-        <v>29</v>
+      <c r="F8" t="s">
+        <v>44</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
-      <c r="H8">
-        <v>4</v>
+      <c r="H8" t="s">
+        <v>7</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I7">
+  <autoFilter ref="A1:I8">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -73177,7 +73212,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
@@ -73401,8 +73436,8 @@
       <c r="D8" s="2">
         <v>13</v>
       </c>
-      <c r="E8" s="2">
-        <v>21</v>
+      <c r="E8" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="F8" s="2">
         <v>21</v>
@@ -73410,15 +73445,15 @@
       <c r="G8" s="2">
         <v>30</v>
       </c>
-      <c r="H8" s="2">
-        <v>4</v>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I8" s="2">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I7">
+  <autoFilter ref="A1:I8">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="735" firstSheet="28" activeTab="31"/>
+    <workbookView windowWidth="10245" windowHeight="7515" tabRatio="735" firstSheet="43" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">L2_609!$A$1:$I$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">SUM_L2_6!$A$1:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="40" hidden="1">l2_1!$A$1:$I$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="41" hidden="1">L2_2!$A$1:$I$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="41" hidden="1">L2_2!$A$1:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">L2_3!$A$1:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">L2_4!$A$1:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">L2_5!$A$1:$I$11</definedName>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="237">
   <si>
     <t>15\14</t>
   </si>
@@ -803,9 +803,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -933,12 +933,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -947,10 +948,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -962,14 +978,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,48 +1008,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1051,9 +1030,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,9 +1053,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1266,7 +1266,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,175 +1446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,6 +1457,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1484,17 +1510,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1514,194 +1543,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="50" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="61" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="47" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="46" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -50990,7 +50990,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -51224,6 +51224,63 @@
         <v>56</v>
       </c>
     </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>20062</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20063</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>20064</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
     <row r="25" spans="7:8">
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -51453,12 +51510,12 @@
   <sheetPr/>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -51467,7 +51524,7 @@
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
     <col min="4" max="4" width="5.9" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="5.9" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
@@ -51774,17 +51831,75 @@
       <c r="E11">
         <v>22</v>
       </c>
-      <c r="F11">
-        <v>24</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="6">
         <v>31</v>
       </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="6">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20063</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="6">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20064</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:10">
@@ -70289,10 +70404,10 @@
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -70620,6 +70735,64 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20063</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="H12" s="5">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20064</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I11">
     <extLst/>
@@ -70633,10 +70806,10 @@
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -70945,7 +71118,7 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>14</v>
       </c>
       <c r="E11">
@@ -70954,13 +71127,71 @@
       <c r="F11">
         <v>26</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>31</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20063</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20064</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
         <v>8</v>
       </c>
     </row>
@@ -70977,17 +71208,19 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.4" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="9" width="3.5" customWidth="1"/>
+    <col min="3" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -71285,27 +71518,85 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>15</v>
+      <c r="E11" t="s">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>19</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>31</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>7</v>
       </c>
-      <c r="I11">
-        <v>8</v>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20063</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20064</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>31</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I10">
+  <autoFilter ref="A1:I11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -71317,10 +71608,10 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -71627,7 +71918,7 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>14</v>
       </c>
       <c r="E11">
@@ -71636,14 +71927,72 @@
       <c r="F11">
         <v>27</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20063</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20064</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
         <v>32</v>
       </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -71659,10 +72008,10 @@
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -71670,7 +72019,9 @@
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="5.9" customWidth="1"/>
-    <col min="4" max="9" width="3.5" customWidth="1"/>
+    <col min="4" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -71965,7 +72316,7 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11">
@@ -71974,8 +72325,8 @@
       <c r="E11">
         <v>21</v>
       </c>
-      <c r="F11">
-        <v>22</v>
+      <c r="F11" t="s">
+        <v>15</v>
       </c>
       <c r="G11">
         <v>27</v>
@@ -71985,6 +72336,64 @@
       </c>
       <c r="I11">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20063</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20064</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -72000,10 +72409,10 @@
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -72314,8 +72723,8 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>15</v>
+      <c r="E11" t="s">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>25</v>
@@ -72323,11 +72732,69 @@
       <c r="G11">
         <v>33</v>
       </c>
-      <c r="H11">
-        <v>3</v>
+      <c r="H11" t="s">
+        <v>12</v>
       </c>
       <c r="I11">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20063</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20064</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>31</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -72343,10 +72810,10 @@
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -72654,20 +73121,78 @@
       <c r="D11">
         <v>13</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>14</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>23</v>
       </c>
       <c r="G11">
         <v>29</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="6">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20063</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20064</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -72683,17 +73208,18 @@
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="5" width="3.5" customWidth="1"/>
+    <col min="3" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="5.9" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
@@ -72998,11 +73524,11 @@
       <c r="D11">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
-      </c>
-      <c r="F11">
-        <v>22</v>
       </c>
       <c r="G11">
         <v>27</v>
@@ -73011,6 +73537,64 @@
         <v>5</v>
       </c>
       <c r="I11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20063</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20064</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
         <v>9</v>
       </c>
     </row>
@@ -73027,10 +73611,10 @@
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -73356,6 +73940,64 @@
       </c>
       <c r="I11">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20063</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20064</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20363"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dlt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\dlt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D256B-2952-4E81-B207-C6CB1EEC6D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED14175-75C6-41FE-8A07-38F84BA72B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="735" firstSheet="28" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="735" firstSheet="28" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -86,21 +86,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">SUM_L3_HMM!$A$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="245">
   <si>
     <t>15\14</t>
   </si>
@@ -812,12 +802,44 @@
   <si>
     <t>309/609</t>
   </si>
+  <si>
+    <t>-.-'</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>--.'</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2\1</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>6\5</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>10\11</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>9\10</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>34\35</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>24\23</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -943,6 +965,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1142,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1250,6 +1278,10 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1597,9 +1629,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1715,9 +1747,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1936,9 +1968,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2331,9 +2363,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2407,9 +2439,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -6852,9 +6884,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -7593,9 +7625,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8346,9 +8378,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8828,9 +8860,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -13210,9 +13242,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -13321,9 +13353,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -17498,9 +17530,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -17619,9 +17651,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -21899,9 +21931,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -23191,9 +23223,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -26710,9 +26742,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -29997,9 +30029,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -33516,9 +33548,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -36988,9 +37020,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -40449,9 +40481,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -43651,9 +43683,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -46849,14 +46881,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" customWidth="1"/>
-    <col min="2" max="3" width="10.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625"/>
-    <col min="6" max="9" width="10.8984375" customWidth="1"/>
-    <col min="10" max="13" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="11.625"/>
+    <col min="6" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="13" width="11.375" customWidth="1"/>
     <col min="14" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -46989,9 +47021,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -47386,13 +47418,13 @@
       <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="4" width="4.19921875" customWidth="1"/>
-    <col min="5" max="5" width="5.09765625" customWidth="1"/>
-    <col min="6" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="3" max="4" width="4.25" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -50308,19 +50340,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
-    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
     <col min="3" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="10" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -50601,6 +50633,21 @@
       </c>
       <c r="B13">
         <v>6</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.35">
@@ -50824,7 +50871,7 @@
   <autoFilter ref="A1:I77" xr:uid="{DFD8234D-B691-4443-A9F8-BA5042712172}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -50836,20 +50883,20 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="7" width="5.8984375" customWidth="1"/>
+    <col min="6" max="7" width="5.875" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="10" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -51201,8 +51248,8 @@
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13">
-        <v>6</v>
+      <c r="C13" s="85" t="s">
+        <v>240</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -51216,8 +51263,8 @@
       <c r="G13">
         <v>32</v>
       </c>
-      <c r="H13">
-        <v>2</v>
+      <c r="H13" s="85" t="s">
+        <v>239</v>
       </c>
       <c r="I13">
         <v>8</v>
@@ -51712,15 +51759,15 @@
       <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
-    <col min="2" max="2" width="2.3984375" customWidth="1"/>
-    <col min="3" max="3" width="3.59765625" customWidth="1"/>
-    <col min="4" max="7" width="5.796875" customWidth="1"/>
-    <col min="8" max="8" width="3.8984375" customWidth="1"/>
-    <col min="9" max="9" width="5.796875" customWidth="1"/>
-    <col min="10" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="3.875" customWidth="1"/>
+    <col min="9" max="9" width="5.75" customWidth="1"/>
+    <col min="10" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -54626,15 +54673,15 @@
       <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
-    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="7" width="5.796875" customWidth="1"/>
+    <col min="4" max="7" width="5.75" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="5.796875" customWidth="1"/>
-    <col min="10" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="9" max="9" width="5.75" customWidth="1"/>
+    <col min="10" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -57784,12 +57831,12 @@
       <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
-    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
     <col min="3" max="9" width="5.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="10" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -58190,14 +58237,14 @@
       <selection pane="bottomRight" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" customWidth="1"/>
-    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
     <col min="3" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="5.796875" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
     <col min="7" max="9" width="5.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="10" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -60868,15 +60915,15 @@
       <selection pane="bottomRight" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
-    <col min="2" max="2" width="2.3984375" customWidth="1"/>
-    <col min="3" max="3" width="3.59765625" customWidth="1"/>
-    <col min="4" max="7" width="5.796875" customWidth="1"/>
-    <col min="8" max="8" width="3.59765625" customWidth="1"/>
-    <col min="9" max="9" width="5.69921875" customWidth="1"/>
-    <col min="10" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="5.75" customWidth="1"/>
+    <col min="10" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -63555,14 +63602,12 @@
       <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" customWidth="1"/>
-    <col min="2" max="2" width="2.3984375" customWidth="1"/>
-    <col min="3" max="5" width="5.69921875" customWidth="1"/>
-    <col min="6" max="7" width="5.796875" customWidth="1"/>
-    <col min="8" max="9" width="5.69921875" customWidth="1"/>
-    <col min="10" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="9" width="5.75" customWidth="1"/>
+    <col min="10" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -66230,14 +66275,12 @@
       <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" customWidth="1"/>
-    <col min="2" max="2" width="2.3984375" customWidth="1"/>
-    <col min="3" max="4" width="5.69921875" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" customWidth="1"/>
-    <col min="6" max="9" width="5.69921875" customWidth="1"/>
-    <col min="10" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="9" width="5.75" customWidth="1"/>
+    <col min="10" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -68914,9 +68957,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -69696,18 +69739,19 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" customWidth="1"/>
-    <col min="5" max="5" width="5.296875" customWidth="1"/>
-    <col min="6" max="7" width="5.8984375" customWidth="1"/>
-    <col min="8" max="9" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="6" max="7" width="5.875" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="6.125" bestFit="1" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -70063,8 +70107,8 @@
       <c r="C13">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>9</v>
+      <c r="D13" s="85" t="s">
+        <v>242</v>
       </c>
       <c r="E13">
         <v>15</v>
@@ -70078,8 +70122,8 @@
       <c r="H13">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>10</v>
+      <c r="I13" s="85" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -70095,17 +70139,17 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
     <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="7" width="5.8984375" customWidth="1"/>
+    <col min="6" max="7" width="5.875" customWidth="1"/>
     <col min="8" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
@@ -70471,8 +70515,8 @@
       <c r="F13">
         <v>22</v>
       </c>
-      <c r="G13">
-        <v>34</v>
+      <c r="G13" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -70497,9 +70541,9 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="4" width="3.5" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -70891,16 +70935,17 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="7" width="5.8984375" customWidth="1"/>
-    <col min="8" max="9" width="3.5" customWidth="1"/>
+    <col min="5" max="7" width="5.875" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -71253,8 +71298,8 @@
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13">
-        <v>6</v>
+      <c r="C13" s="85" t="s">
+        <v>240</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -71268,8 +71313,8 @@
       <c r="G13">
         <v>32</v>
       </c>
-      <c r="H13">
-        <v>2</v>
+      <c r="H13" s="85" t="s">
+        <v>239</v>
       </c>
       <c r="I13">
         <v>8</v>
@@ -71288,17 +71333,19 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="5.8984375" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
     <col min="4" max="5" width="3.5" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="9" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -71666,8 +71713,8 @@
       <c r="G13">
         <v>33</v>
       </c>
-      <c r="H13">
-        <v>2</v>
+      <c r="H13" s="85" t="s">
+        <v>239</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -71686,16 +71733,16 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.296875" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="6" width="5.8984375" customWidth="1"/>
+    <col min="5" max="6" width="5.875" customWidth="1"/>
     <col min="7" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
@@ -72049,7 +72096,7 @@
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>5</v>
       </c>
       <c r="D13">
@@ -72084,10 +72131,10 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
@@ -72450,8 +72497,8 @@
       <c r="D13">
         <v>14</v>
       </c>
-      <c r="E13">
-        <v>24</v>
+      <c r="E13" s="85" t="s">
+        <v>244</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -72462,7 +72509,7 @@
       <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <v>11</v>
       </c>
     </row>
@@ -72479,19 +72526,20 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="4" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.8984375" customWidth="1"/>
+    <col min="6" max="6" width="5.875" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="3.59765625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -72844,11 +72892,11 @@
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>242</v>
       </c>
       <c r="E13">
         <v>19</v>
@@ -72878,17 +72926,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="3" width="2.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" customWidth="1"/>
+    <col min="2" max="2" width="2.5" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" customWidth="1"/>
     <col min="5" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="5.8984375" customWidth="1"/>
+    <col min="7" max="7" width="5.875" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
     <col min="9" max="9" width="5.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
@@ -73240,8 +73289,8 @@
       <c r="A13">
         <v>20064</v>
       </c>
-      <c r="B13">
-        <v>6</v>
+      <c r="B13" s="85" t="s">
+        <v>240</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -73284,13 +73333,13 @@
       <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
-    <col min="2" max="2" width="2.3984375" customWidth="1"/>
-    <col min="3" max="7" width="5.69921875" customWidth="1"/>
-    <col min="8" max="9" width="7.3984375" customWidth="1"/>
-    <col min="10" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -73442,9 +73491,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -73663,9 +73712,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -73884,9 +73933,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -74105,9 +74154,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -74326,9 +74375,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1025" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\dlt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dlt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED14175-75C6-41FE-8A07-38F84BA72B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A9D7C-D58B-4FD2-8F29-34A634770C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="735" firstSheet="28" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="735" firstSheet="28" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mdaI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -65,32 +65,42 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">Fre!$A$1:$E$171</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="40" hidden="1">l2_1!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="40" hidden="1">l2_1!$A$1:$I$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">L2_159!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="41" hidden="1">L2_2!$A$1:$I$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">L2_3!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="41" hidden="1">L2_2!$A$1:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">L2_3!$A$1:$I$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">L2_309!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">L2_4!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">L2_4!$A$1:$I$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">L2_459!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">L2_5!$A$1:$I$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="45" hidden="1">L2_6!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">L2_5!$A$1:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="45" hidden="1">L2_6!$A$1:$I$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">L2_609!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">L2_7!$A$1:$I$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">L2_8!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">L2_7!$A$1:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">L2_8!$A$1:$I$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="48" hidden="1">'L2-sum'!$A$1:$I$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">sum_L1!$A$1:$I$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2_3!$A$1:$J$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">SUM_L2_6!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">sum_L1!$A$1:$I$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2_3!$A$1:$I$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">SUM_L2_6!$A$1:$I$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">SUM_L2_min!$A$1:$I$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">SUM_L3!$A$1:$I$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">SUM_L3_HMM!$A$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="258">
   <si>
     <t>15\14</t>
   </si>
@@ -834,6 +844,58 @@
     <t>24\23</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>-.-'</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2\3</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>4\3</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>31\30</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>29\30</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>17\18</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>5\4</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>9\10</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>27\28</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>--.'</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>6\7</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>10\9</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>8\9</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1170,7 +1232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1282,6 +1344,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1629,9 +1699,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1747,9 +1817,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1968,9 +2038,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2363,9 +2433,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2439,9 +2509,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -6884,9 +6954,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -7625,9 +7695,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8378,9 +8448,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8860,9 +8930,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -13242,9 +13312,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -13353,9 +13423,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -17530,9 +17600,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -17651,9 +17721,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -21931,9 +22001,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -23223,9 +23293,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -26742,9 +26812,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -30029,9 +30099,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -33548,9 +33618,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -37020,9 +37090,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -40481,9 +40551,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -43683,9 +43753,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -46881,14 +46951,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="11.625"/>
-    <col min="6" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="13" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" customWidth="1"/>
+    <col min="2" max="3" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625"/>
+    <col min="6" max="9" width="10.8984375" customWidth="1"/>
+    <col min="10" max="13" width="11.3984375" customWidth="1"/>
     <col min="14" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -47021,9 +47091,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -47414,17 +47484,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="4" width="4.25" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
-    <col min="6" max="1025" width="8.25" customWidth="1"/>
+    <col min="3" max="4" width="4.19921875" customWidth="1"/>
+    <col min="5" max="5" width="5.09765625" customWidth="1"/>
+    <col min="6" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -50338,21 +50408,21 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
     <col min="3" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.25" customWidth="1"/>
+    <col min="10" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -50380,495 +50450,539 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20053</v>
+        <v>20047</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="C2" s="2"/>
+      <c r="D2" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>20054</v>
+        <v>20048</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="19">
+        <v>2</v>
+      </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20055</v>
+        <v>20053</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20056</v>
+        <v>20054</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20058</v>
+        <v>20056</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>57</v>
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20059</v>
+        <v>20057</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>57</v>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20061</v>
+        <v>20059</v>
       </c>
       <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>56</v>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20062</v>
+        <v>20060</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20063</v>
+        <v>20061</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="82" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>20062</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20063</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>20064</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="83" t="s">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="83" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="I13" s="84" t="s">
+      <c r="I15" s="84" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="F26" s="7"/>
-    </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="H28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="H31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C34" s="1"/>
       <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="H39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.35">
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D47" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="G58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.35">
       <c r="F61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="F63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="E65" s="1"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="E67" s="1"/>
+      <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
       <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
       <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="G73" s="1"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="F76" s="1"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
     </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I77" xr:uid="{DFD8234D-B691-4443-A9F8-BA5042712172}"/>
+  <autoFilter ref="A1:I79" xr:uid="{DFD8234D-B691-4443-A9F8-BA5042712172}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -50877,26 +50991,26 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="7" width="5.875" customWidth="1"/>
+    <col min="6" max="7" width="5.8984375" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="1024" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -51011,7 +51125,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20056</v>
+        <v>20047</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -51019,318 +51133,348 @@
       <c r="C5" s="19">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
+      <c r="D5">
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="89">
+        <v>27</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>247</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20057</v>
+        <v>20048</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="19">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6" s="85">
+        <v>6</v>
+      </c>
+      <c r="I6" s="85">
         <v>12</v>
-      </c>
-      <c r="E6">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6">
-        <v>23</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20058</v>
+        <v>20056</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="19">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20059</v>
+        <v>20057</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="19">
+        <v>10</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="19">
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G9">
-        <v>27</v>
-      </c>
-      <c r="H9" s="6">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20061</v>
+        <v>20059</v>
       </c>
       <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
         <v>12</v>
       </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
       <c r="F10">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20062</v>
+        <v>20060</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="6">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="6">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20063</v>
+        <v>20061</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>31</v>
+      </c>
+      <c r="H12">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="I12">
         <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="6">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>20062</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="6">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20063</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>20064</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="85" t="s">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>25</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>32</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H15" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C24" s="7"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C25" s="7"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -51338,9 +51482,8 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -51348,9 +51491,8 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -51358,9 +51500,8 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -51368,9 +51509,8 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -51378,9 +51518,8 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -51388,9 +51527,8 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -51398,9 +51536,8 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -51408,9 +51545,8 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -51418,9 +51554,8 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -51428,9 +51563,8 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -51438,9 +51572,8 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -51448,9 +51581,8 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -51458,9 +51590,8 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -51468,9 +51599,8 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -51478,9 +51608,8 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -51488,9 +51617,8 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -51498,9 +51626,8 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -51508,9 +51635,8 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -51518,9 +51644,8 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -51528,9 +51653,8 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -51538,9 +51662,8 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -51548,9 +51671,8 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -51558,7 +51680,6 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C49" s="7"/>
@@ -51740,8 +51861,26 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J68" xr:uid="{00000000-0009-0000-0000-00001F000000}"/>
+  <autoFilter ref="A1:I70" xr:uid="{00000000-0009-0000-0000-00001F000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -51759,15 +51898,15 @@
       <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="2.375" customWidth="1"/>
-    <col min="3" max="3" width="3.625" customWidth="1"/>
-    <col min="4" max="7" width="5.75" customWidth="1"/>
-    <col min="8" max="8" width="3.875" customWidth="1"/>
-    <col min="9" max="9" width="5.75" customWidth="1"/>
-    <col min="10" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="3" max="3" width="3.59765625" customWidth="1"/>
+    <col min="4" max="7" width="5.69921875" customWidth="1"/>
+    <col min="8" max="8" width="3.8984375" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" customWidth="1"/>
+    <col min="10" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -54673,15 +54812,15 @@
       <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="7" width="5.75" customWidth="1"/>
+    <col min="4" max="7" width="5.69921875" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" customWidth="1"/>
-    <col min="10" max="1025" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" customWidth="1"/>
+    <col min="10" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -57831,12 +57970,12 @@
       <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
     <col min="3" max="9" width="5.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.25" customWidth="1"/>
+    <col min="10" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -58237,14 +58376,14 @@
       <selection pane="bottomRight" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
     <col min="3" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" customWidth="1"/>
     <col min="7" max="9" width="5.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.625" customWidth="1"/>
+    <col min="10" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -60915,15 +61054,15 @@
       <selection pane="bottomRight" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="2.375" customWidth="1"/>
-    <col min="3" max="3" width="3.625" customWidth="1"/>
-    <col min="4" max="7" width="5.75" customWidth="1"/>
-    <col min="8" max="8" width="3.625" customWidth="1"/>
-    <col min="9" max="9" width="5.75" customWidth="1"/>
-    <col min="10" max="1025" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="3" max="3" width="3.59765625" customWidth="1"/>
+    <col min="4" max="7" width="5.69921875" customWidth="1"/>
+    <col min="8" max="8" width="3.59765625" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" customWidth="1"/>
+    <col min="10" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -63602,12 +63741,12 @@
       <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="2.375" customWidth="1"/>
-    <col min="3" max="9" width="5.75" customWidth="1"/>
-    <col min="10" max="1025" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="3" max="9" width="5.69921875" customWidth="1"/>
+    <col min="10" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -66275,12 +66414,12 @@
       <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="2.375" customWidth="1"/>
-    <col min="3" max="9" width="5.75" customWidth="1"/>
-    <col min="10" max="1025" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="3" max="9" width="5.69921875" customWidth="1"/>
+    <col min="10" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -68957,9 +69096,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -69736,22 +69875,22 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
-    <col min="5" max="5" width="5.25" customWidth="1"/>
-    <col min="6" max="7" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" customWidth="1"/>
+    <col min="6" max="7" width="5.8984375" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.09765625" bestFit="1" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -69780,259 +69919,259 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20053</v>
+        <v>20047</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>20054</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>43</v>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="88">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
+        <v>20048</v>
+      </c>
+      <c r="B3" s="92">
+        <v>3</v>
+      </c>
+      <c r="C3" s="91">
+        <v>1</v>
+      </c>
+      <c r="D3" s="91">
+        <v>11</v>
+      </c>
+      <c r="E3" s="91">
+        <v>19</v>
+      </c>
+      <c r="F3" s="93">
+        <v>21</v>
+      </c>
+      <c r="G3" s="93">
+        <v>32</v>
+      </c>
+      <c r="H3" s="91">
+        <v>4</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20055</v>
+        <v>20053</v>
       </c>
       <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
       <c r="I4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20056</v>
+        <v>20054</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
       <c r="E5">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
         <v>10</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D6">
         <v>16</v>
       </c>
       <c r="E6">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>87</v>
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20058</v>
+        <v>20056</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>92</v>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20059</v>
+        <v>20057</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9">
         <v>7</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20061</v>
+        <v>20059</v>
       </c>
       <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E10">
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <v>19</v>
-      </c>
-      <c r="G10">
-        <v>28</v>
-      </c>
-      <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I10">
@@ -70041,93 +70180,151 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20062</v>
+        <v>20060</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>19</v>
-      </c>
-      <c r="F11">
-        <v>26</v>
-      </c>
-      <c r="G11">
-        <v>26</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
       <c r="I11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20063</v>
+        <v>20061</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
       </c>
       <c r="G12">
         <v>28</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <v>7</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20064</v>
+        <v>20062</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20063</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>20064</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>15</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>27</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>32</v>
       </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13" s="85" t="s">
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" s="85" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0000-000027000000}"/>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-000027000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -70136,20 +70333,20 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" customWidth="1"/>
     <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="7" width="5.875" customWidth="1"/>
+    <col min="6" max="7" width="5.8984375" customWidth="1"/>
     <col min="8" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
@@ -70179,354 +70376,412 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20053</v>
+        <v>20047</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>26</v>
-      </c>
-      <c r="G2">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="2">
         <v>7</v>
       </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>20054</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
+      <c r="D2" s="2">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>26</v>
-      </c>
-      <c r="G3">
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="89">
         <v>27</v>
       </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3">
-        <v>7</v>
+      <c r="H2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
+        <v>20048</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="91">
+        <v>4</v>
+      </c>
+      <c r="D3" s="89">
+        <v>15</v>
+      </c>
+      <c r="E3" s="89">
+        <v>16</v>
+      </c>
+      <c r="F3" s="91">
+        <v>19</v>
+      </c>
+      <c r="G3" s="91">
+        <v>20</v>
+      </c>
+      <c r="H3" s="93">
+        <v>3</v>
+      </c>
+      <c r="I3" s="91">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20055</v>
+        <v>20053</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20056</v>
+        <v>20054</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
         <v>7</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20058</v>
+        <v>20056</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>25</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20059</v>
+        <v>20057</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>19</v>
-      </c>
-      <c r="G8" s="4">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="F9" s="4">
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="6">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20061</v>
+        <v>20059</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E10">
         <v>16</v>
       </c>
       <c r="F10">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>33</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>86</v>
+        <v>19</v>
+      </c>
+      <c r="G10" s="4">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20062</v>
+        <v>20060</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="D11" s="5">
-        <v>14</v>
-      </c>
       <c r="E11">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>26</v>
-      </c>
-      <c r="G11" s="6">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="I11" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20063</v>
+        <v>20061</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="F12" s="6">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
       </c>
       <c r="G12">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>20062</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20063</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>20064</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>17</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>22</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G15" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0000-000028000000}"/>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-000028000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -70535,15 +70790,15 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="4" width="3.5" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -70576,354 +70831,412 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20053</v>
+        <v>20047</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2">
         <v>7</v>
       </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>20054</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
+      <c r="I2" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
+        <v>20048</v>
+      </c>
+      <c r="B3" s="92">
+        <v>3</v>
+      </c>
+      <c r="C3" s="93">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>27</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
+      <c r="D3" s="93">
+        <v>11</v>
+      </c>
+      <c r="E3" s="89">
+        <v>15</v>
+      </c>
+      <c r="F3" s="91">
+        <v>19</v>
+      </c>
+      <c r="G3" s="91">
+        <v>24</v>
+      </c>
+      <c r="H3" s="91">
+        <v>5</v>
+      </c>
+      <c r="I3" s="89">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20055</v>
+        <v>20053</v>
       </c>
       <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>26</v>
-      </c>
-      <c r="G4">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20056</v>
+        <v>20054</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5" s="4">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>26</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20058</v>
+        <v>20056</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="F7">
-        <v>29</v>
-      </c>
       <c r="G7">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>92</v>
+        <v>30</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20059</v>
+        <v>20057</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <v>26</v>
       </c>
       <c r="H8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G9">
-        <v>28</v>
-      </c>
-      <c r="H9" s="6">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20061</v>
+        <v>20059</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10" s="6">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20062</v>
+        <v>20060</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="5">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>19</v>
-      </c>
-      <c r="G11" s="6">
-        <v>31</v>
-      </c>
-      <c r="H11" s="5">
-        <v>7</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>28</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20063</v>
+        <v>20061</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>19</v>
-      </c>
-      <c r="G12" s="5">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20064</v>
+        <v>20062</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
         <v>14</v>
       </c>
-      <c r="E13">
-        <v>18</v>
+      <c r="E13" t="s">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>19</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>31</v>
       </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="5">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20063</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>19</v>
+      </c>
+      <c r="G14" s="5">
+        <v>20</v>
+      </c>
+      <c r="H14">
         <v>9</v>
       </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>20064</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0000-000029000000}"/>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-000029000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -70932,19 +71245,19 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="7" width="5.875" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="5.8984375" customWidth="1"/>
+    <col min="8" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
@@ -70974,354 +71287,412 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20053</v>
+        <v>20047</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2">
+      <c r="C2" s="2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
         <v>24</v>
       </c>
-      <c r="G2">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>20054</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="G2" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
+        <v>20048</v>
+      </c>
+      <c r="B3" s="92">
+        <v>3</v>
+      </c>
+      <c r="C3" s="91">
+        <v>5</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="91">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
+      <c r="F3" s="91">
+        <v>22</v>
+      </c>
+      <c r="G3" s="91">
+        <v>30</v>
+      </c>
+      <c r="H3" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="91">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20055</v>
+        <v>20053</v>
       </c>
       <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>14</v>
+      <c r="E4" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F4">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
+      <c r="G4">
+        <v>31</v>
       </c>
       <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20056</v>
+        <v>20054</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
       </c>
       <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
       <c r="F6">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20058</v>
+        <v>20056</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>232</v>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4">
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20059</v>
+        <v>20057</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
         <v>11</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20061</v>
+        <v>20059</v>
       </c>
       <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>86</v>
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20062</v>
+        <v>20060</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="6">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20063</v>
+        <v>20061</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6">
+        <v>16</v>
+      </c>
+      <c r="E12">
         <v>20</v>
       </c>
-      <c r="F12">
-        <v>23</v>
-      </c>
-      <c r="G12" s="6">
-        <v>33</v>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12">
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>20062</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20063</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6">
+        <v>33</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>20064</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="85" t="s">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>25</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>32</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H15" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0000-00002A000000}"/>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002A000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -71330,21 +71701,21 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="3" max="3" width="5.8984375" customWidth="1"/>
     <col min="4" max="5" width="3.5" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
@@ -71374,354 +71745,412 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20053</v>
+        <v>20047</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4">
-        <v>27</v>
-      </c>
-      <c r="F2">
-        <v>28</v>
-      </c>
-      <c r="G2">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>25</v>
+      </c>
+      <c r="G2" s="88">
+        <v>30</v>
+      </c>
+      <c r="H2" s="88">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
+        <v>20048</v>
+      </c>
+      <c r="B3" s="92">
+        <v>3</v>
+      </c>
+      <c r="C3" s="91">
+        <v>5</v>
+      </c>
+      <c r="D3" s="91">
+        <v>13</v>
+      </c>
+      <c r="E3" s="91">
+        <v>20</v>
+      </c>
+      <c r="F3" s="91">
+        <v>23</v>
+      </c>
+      <c r="G3" s="91">
+        <v>34</v>
+      </c>
+      <c r="H3" s="91">
+        <v>3</v>
+      </c>
+      <c r="I3" s="94">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>20054</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>33</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20055</v>
+        <v>20053</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>32</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20056</v>
+        <v>20054</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
+        <v>19</v>
+      </c>
+      <c r="F5">
         <v>24</v>
       </c>
-      <c r="F5">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4">
-        <v>29</v>
+      <c r="G5">
+        <v>33</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20058</v>
+        <v>20056</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="G7" s="4">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20059</v>
+        <v>20057</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>26</v>
-      </c>
-      <c r="G8" s="4">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>26</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20061</v>
+        <v>20059</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>24</v>
-      </c>
-      <c r="G10">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4">
         <v>28</v>
       </c>
       <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10" s="6">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20062</v>
+        <v>20060</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="5">
+        <v>25</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20063</v>
+        <v>20061</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
       </c>
       <c r="I12" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>20062</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20063</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>20064</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>16</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>16</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>25</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>33</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H15" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0000-00002B000000}"/>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002B000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -71730,20 +72159,21 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="6" width="5.875" customWidth="1"/>
-    <col min="7" max="9" width="3.5" customWidth="1"/>
+    <col min="5" max="6" width="5.8984375" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -71772,289 +72202,289 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20053</v>
+        <v>20047</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
+      <c r="C2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>20054</v>
+        <v>20048</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3">
-        <v>26</v>
-      </c>
-      <c r="G3">
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="89">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20055</v>
+        <v>20053</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4" s="4">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>22</v>
+      <c r="E4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="G4">
-        <v>28</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20056</v>
+        <v>20054</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
         <v>11</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4">
-        <v>29</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20058</v>
+        <v>20056</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="4">
-        <v>27</v>
-      </c>
-      <c r="G7">
-        <v>33</v>
-      </c>
-      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7" s="4">
+        <v>29</v>
+      </c>
+      <c r="H7" s="3">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20059</v>
+        <v>20057</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>19</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="4">
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20061</v>
+        <v>20059</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
         <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20062</v>
+        <v>20060</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5">
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -72062,64 +72492,122 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20063</v>
+        <v>20061</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>20062</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20063</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>20064</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15">
         <v>13</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>15</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>28</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>31</v>
       </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0000-00002C000000}"/>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002C000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -72128,17 +72616,20 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="9" width="3.5" customWidth="1"/>
+    <col min="3" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -72167,260 +72658,260 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20053</v>
+        <v>20047</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="2">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="2">
+        <v>17</v>
+      </c>
+      <c r="F2" s="88">
         <v>28</v>
       </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3">
-        <v>6</v>
+      <c r="G2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>20054</v>
+        <v>20048</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
+      <c r="C3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="88">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25</v>
+      </c>
+      <c r="F3" s="91">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20055</v>
+        <v>20053</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20056</v>
+        <v>20054</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>11</v>
       </c>
       <c r="F5">
         <v>24</v>
       </c>
-      <c r="G5" s="3">
-        <v>34</v>
+      <c r="G5">
+        <v>30</v>
       </c>
       <c r="H5" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20058</v>
+        <v>20056</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
-        <v>27</v>
-      </c>
-      <c r="G7">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5</v>
-      </c>
-      <c r="I7" s="3">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20059</v>
+        <v>20057</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
       </c>
       <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>23</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20061</v>
+        <v>20059</v>
       </c>
       <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-1</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3">
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -72428,57 +72919,57 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20062</v>
+        <v>20060</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6">
-        <v>14</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11">
         <v>23</v>
       </c>
-      <c r="G11">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="6">
-        <v>7</v>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20063</v>
+        <v>20061</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G12">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
       </c>
       <c r="I12">
         <v>9</v>
@@ -72486,35 +72977,93 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>20062</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20063</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>20064</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E15" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>25</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>33</v>
       </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0000-00002D000000}"/>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002D000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -72523,23 +73072,23 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="5.8984375" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.59765625" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -72568,354 +73117,412 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20053</v>
+        <v>20047</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
+        <v>20048</v>
+      </c>
+      <c r="B3" s="92">
+        <v>3</v>
+      </c>
+      <c r="C3" s="91">
+        <v>6</v>
+      </c>
+      <c r="D3" s="91">
+        <v>18</v>
+      </c>
+      <c r="E3" s="91">
+        <v>19</v>
+      </c>
+      <c r="F3" s="91">
+        <v>25</v>
+      </c>
+      <c r="G3" s="91">
+        <v>32</v>
+      </c>
+      <c r="H3" s="93">
+        <v>4</v>
+      </c>
+      <c r="I3" s="91">
         <v>11</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>26</v>
-      </c>
-      <c r="G2">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>20054</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20055</v>
+        <v>20053</v>
       </c>
       <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20056</v>
+        <v>20054</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>32</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
+      <c r="I6">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20058</v>
+        <v>20056</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="4">
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20059</v>
+        <v>20057</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
+      <c r="F8" s="3">
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="F9" s="3">
+        <v>26</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9" s="6">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20061</v>
+        <v>20059</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>116</v>
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>31</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20062</v>
+        <v>20060</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="I11" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20063</v>
+        <v>20061</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5">
-        <v>21</v>
-      </c>
-      <c r="F12">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>4</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20064</v>
+        <v>20062</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13">
-        <v>19</v>
-      </c>
-      <c r="F13">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>9</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20063</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>28</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>20064</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>33</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0000-00002E000000}"/>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002E000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -72924,20 +73531,20 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" customWidth="1"/>
     <col min="5" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="5.875" customWidth="1"/>
+    <col min="7" max="7" width="5.8984375" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
     <col min="9" max="9" width="5.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
@@ -72968,173 +73575,173 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20053</v>
+        <v>20047</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="88">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="2">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>35</v>
+      </c>
+      <c r="H2" s="88">
+        <v>3</v>
+      </c>
+      <c r="I2" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="92">
+        <v>20048</v>
+      </c>
+      <c r="B3" s="92">
+        <v>3</v>
+      </c>
+      <c r="C3" s="93">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>20054</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>28</v>
-      </c>
-      <c r="G3">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
+      <c r="D3" s="91">
+        <v>18</v>
+      </c>
+      <c r="E3" s="91">
+        <v>22</v>
+      </c>
+      <c r="F3" s="91">
+        <v>29</v>
+      </c>
+      <c r="G3" s="91">
+        <v>32</v>
+      </c>
+      <c r="H3" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="91">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20055</v>
+        <v>20053</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20056</v>
+        <v>20054</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20058</v>
+        <v>20056</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>9</v>
@@ -73142,135 +73749,135 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20059</v>
+        <v>20057</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>29</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20061</v>
+        <v>20059</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>26</v>
-      </c>
-      <c r="G10">
-        <v>33</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
       <c r="I10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20062</v>
+        <v>20060</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>28</v>
-      </c>
-      <c r="G11">
         <v>29</v>
       </c>
-      <c r="H11">
-        <v>4</v>
+      <c r="G11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20063</v>
+        <v>20061</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F12">
         <v>26</v>
@@ -73279,43 +73886,101 @@
         <v>33</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>20062</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20063</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>33</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>20064</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B15" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>15</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>21</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>32</v>
       </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0000-00002F000000}"/>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002F000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -73333,13 +73998,13 @@
       <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="2.375" customWidth="1"/>
-    <col min="3" max="7" width="5.75" customWidth="1"/>
-    <col min="8" max="9" width="7.375" customWidth="1"/>
-    <col min="10" max="1025" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="3" max="7" width="5.69921875" customWidth="1"/>
+    <col min="8" max="9" width="7.3984375" customWidth="1"/>
+    <col min="10" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -73491,9 +74156,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -73712,9 +74377,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -73933,9 +74598,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -74154,9 +74819,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -74375,9 +75040,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.25" customWidth="1"/>
+    <col min="1" max="1025" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">

--- a/dlt_sum.xlsx
+++ b/dlt_sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dlt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A9D7C-D58B-4FD2-8F29-34A634770C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AEB588-EA9D-4E65-A753-E2728DB2A7AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="735" firstSheet="28" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,22 +65,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">Fre!$A$1:$E$171</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="40" hidden="1">l2_1!$A$1:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="40" hidden="1">l2_1!$A$1:$I$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">L2_159!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="41" hidden="1">L2_2!$A$1:$I$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">L2_3!$A$1:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="41" hidden="1">L2_2!$A$1:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">L2_3!$A$1:$I$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">L2_309!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">L2_4!$A$1:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">L2_4!$A$1:$I$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">L2_459!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">L2_5!$A$1:$I$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="45" hidden="1">L2_6!$A$1:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">L2_5!$A$1:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="45" hidden="1">L2_6!$A$1:$I$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">L2_609!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">L2_7!$A$1:$I$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">L2_8!$A$1:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">L2_7!$A$1:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">L2_8!$A$1:$I$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="48" hidden="1">'L2-sum'!$A$1:$I$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">sum_L1!$A$1:$I$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2_3!$A$1:$I$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">SUM_L2_6!$A$1:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">sum_L1!$A$1:$I$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">SUM_L2_3!$A$1:$I$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">SUM_L2_6!$A$1:$I$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">SUM_L2_min!$A$1:$I$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">SUM_L3!$A$1:$I$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">SUM_L3_HMM!$A$1:$I$20</definedName>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="269">
   <si>
     <t>15\14</t>
   </si>
@@ -894,6 +894,50 @@
   </si>
   <si>
     <t>8\9</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>-.-'</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>9\10</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>29\30</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>14\15</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>12\11</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>31\30</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>16\15</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2\3</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>21\22</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>7\8</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>11\10</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -50408,13 +50452,13 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:I3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -50494,156 +50538,156 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20053</v>
+        <v>20049</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="D4" s="85">
+        <v>3</v>
+      </c>
+      <c r="E4" s="85">
+        <v>1</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="H4" s="85">
+        <v>1</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
-        <v>2</v>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20058</v>
+        <v>20057</v>
       </c>
       <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>57</v>
+      <c r="H9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -50654,53 +50698,62 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20061</v>
+        <v>20060</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20062</v>
+        <v>20061</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>56</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="82" t="s">
         <v>56</v>
@@ -50708,281 +50761,301 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="I13" s="82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20063</v>
+        <v>20062</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14">
+        <v>58</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
+      <c r="I14" s="82" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>20063</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>20064</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="83" t="s">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="83" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="I15" s="84" t="s">
+      <c r="I16" s="84" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="H30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="H33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="F37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="H41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D49" s="1"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D50" s="1"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E53" s="1"/>
       <c r="G53" s="1"/>
+      <c r="I53" s="1"/>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="F61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="F63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="H63" s="1"/>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="I64" s="1"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
+      <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
       <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="G74" s="1"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="G75" s="1"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="H78" s="1"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I79" xr:uid="{DFD8234D-B691-4443-A9F8-BA5042712172}"/>
+  <autoFilter ref="A1:I80" xr:uid="{DFD8234D-B691-4443-A9F8-BA5042712172}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -50991,13 +51064,13 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -51183,57 +51256,57 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20056</v>
+        <v>20049</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="19">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="85">
+        <v>17</v>
+      </c>
+      <c r="E7" s="85">
+        <v>18</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="85">
+        <v>32</v>
+      </c>
+      <c r="H7" s="85">
+        <v>3</v>
+      </c>
+      <c r="I7" s="85">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="19">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>155</v>
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
       </c>
       <c r="G8">
-        <v>23</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -51241,230 +51314,251 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20058</v>
+        <v>20057</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="G9">
-        <v>31</v>
-      </c>
-      <c r="H9" s="3">
+        <v>23</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="19">
+        <v>6</v>
       </c>
       <c r="D10">
         <v>12</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>29</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>27</v>
-      </c>
-      <c r="H11" s="6">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20061</v>
+        <v>20060</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
       </c>
       <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
         <v>27</v>
       </c>
-      <c r="G12">
-        <v>31</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
+      <c r="H12" s="6">
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20062</v>
+        <v>20061</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="E13" s="6">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>27</v>
+      </c>
+      <c r="G13">
         <v>31</v>
       </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="H13">
         <v>7</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20063</v>
+        <v>20062</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="6">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="6">
         <v>7</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6">
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>20063</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="6">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>20064</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="85" t="s">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>12</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>25</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H16" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C23" s="7"/>
       <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D25" s="7"/>
@@ -51475,7 +51569,6 @@
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -51879,11 +51972,20 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I70" xr:uid="{00000000-0009-0000-0000-00001F000000}"/>
+  <autoFilter ref="A1:I71" xr:uid="{00000000-0009-0000-0000-00001F000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -69875,10 +69977,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -69887,7 +69989,7 @@
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
     <col min="4" max="4" width="5.8984375" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5.8984375" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
     <col min="9" max="9" width="6.09765625" bestFit="1" customWidth="1"/>
@@ -69975,230 +70077,230 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>20053</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
+    <row r="4" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>20049</v>
+      </c>
+      <c r="B4" s="92">
+        <v>6</v>
+      </c>
+      <c r="C4" s="91">
+        <v>10</v>
+      </c>
+      <c r="D4" s="88">
+        <v>11</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="93">
+        <v>24</v>
+      </c>
+      <c r="G4" s="93">
+        <v>35</v>
+      </c>
+      <c r="H4" s="91">
+        <v>5</v>
+      </c>
+      <c r="I4" s="93">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>43</v>
+      <c r="I5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>24</v>
-      </c>
       <c r="G6">
-        <v>29</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
         <v>29</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20058</v>
+        <v>20057</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9">
-        <v>24</v>
-      </c>
-      <c r="G9">
-        <v>33</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10">
+      <c r="E10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>115</v>
+      <c r="G10">
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10">
         <v>7</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>7</v>
@@ -70209,27 +70311,27 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20061</v>
+        <v>20060</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>19</v>
-      </c>
-      <c r="G12">
-        <v>28</v>
-      </c>
-      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I12">
@@ -70238,57 +70340,57 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20062</v>
+        <v>20061</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>28</v>
+      </c>
+      <c r="H13">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>19</v>
-      </c>
-      <c r="F13">
-        <v>26</v>
-      </c>
-      <c r="G13">
-        <v>26</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
       <c r="I13">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20063</v>
+        <v>20062</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
       </c>
       <c r="G14">
-        <v>28</v>
-      </c>
-      <c r="H14" s="5">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -70296,35 +70398,64 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>20063</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="H15" s="5">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>20064</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D16" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>27</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15" s="85" t="s">
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="85" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-000027000000}"/>
+  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0000-000027000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -70333,10 +70464,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -70347,7 +70478,8 @@
     <col min="4" max="4" width="5.8984375" customWidth="1"/>
     <col min="5" max="5" width="3.5" customWidth="1"/>
     <col min="6" max="7" width="5.8984375" customWidth="1"/>
-    <col min="8" max="9" width="3.5" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -70432,70 +70564,70 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>20053</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>26</v>
-      </c>
-      <c r="G4">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
+    <row r="4" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>20049</v>
+      </c>
+      <c r="B4" s="92">
+        <v>6</v>
+      </c>
+      <c r="C4" s="91">
         <v>7</v>
       </c>
-      <c r="I4">
-        <v>8</v>
+      <c r="D4" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="91">
+        <v>20</v>
+      </c>
+      <c r="F4" s="88">
+        <v>22</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="93">
+        <v>3</v>
+      </c>
+      <c r="I4" s="93" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>26</v>
       </c>
       <c r="G5">
-        <v>27</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -70503,285 +70635,314 @@
       <c r="D6">
         <v>9</v>
       </c>
-      <c r="E6" s="4">
-        <v>18</v>
+      <c r="E6">
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>6</v>
+      <c r="I6" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20058</v>
+        <v>20057</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>16</v>
-      </c>
-      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4">
         <v>19</v>
       </c>
-      <c r="G10" s="4">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="6">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="G11" s="4">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20061</v>
+        <v>20060</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>33</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s">
-        <v>86</v>
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20062</v>
+        <v>20061</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>26</v>
-      </c>
-      <c r="G13" s="6">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20063</v>
+        <v>20062</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>21</v>
-      </c>
-      <c r="G14">
-        <v>29</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14" s="6">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>20063</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>20064</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>17</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>22</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G16" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-000028000000}"/>
+  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0000-000028000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -70790,10 +70951,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -70887,59 +71048,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>20053</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>20049</v>
+      </c>
+      <c r="B4" s="92">
+        <v>6</v>
+      </c>
+      <c r="C4" s="94">
+        <v>3</v>
+      </c>
+      <c r="D4" s="94">
+        <v>11</v>
+      </c>
+      <c r="E4" s="91">
+        <v>18</v>
+      </c>
+      <c r="F4" s="91">
+        <v>24</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="89">
         <v>8</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>27</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
       </c>
       <c r="I5">
         <v>9</v>
@@ -70947,172 +71108,172 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>32</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>30</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>26</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20058</v>
+        <v>20057</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>11</v>
-      </c>
-      <c r="E9">
-        <v>18</v>
-      </c>
-      <c r="F9">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>26</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11">
-        <v>28</v>
-      </c>
-      <c r="H11" s="6">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11">
@@ -71121,122 +71282,151 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20061</v>
+        <v>20060</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12" s="6">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20062</v>
+        <v>20061</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="5">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>19</v>
-      </c>
-      <c r="G13" s="6">
-        <v>31</v>
-      </c>
-      <c r="H13" s="5">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20063</v>
+        <v>20062</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>19</v>
       </c>
-      <c r="G14" s="5">
-        <v>20</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <v>9</v>
+      <c r="G14" s="6">
+        <v>31</v>
+      </c>
+      <c r="H14" s="5">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>20064</v>
+        <v>20063</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
       </c>
       <c r="F15">
         <v>19</v>
       </c>
-      <c r="G15">
-        <v>31</v>
+      <c r="G15" s="5">
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>9</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>20064</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>31</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-000029000000}"/>
+  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0000-000029000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -71245,10 +71435,10 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -71343,356 +71533,385 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>20053</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>86</v>
+    <row r="4" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>20049</v>
+      </c>
+      <c r="B4" s="92">
+        <v>6</v>
+      </c>
+      <c r="C4" s="91">
+        <v>6</v>
+      </c>
+      <c r="D4" s="93">
+        <v>17</v>
+      </c>
+      <c r="E4" s="91">
+        <v>18</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="91">
+        <v>32</v>
+      </c>
+      <c r="H4" s="93">
+        <v>3</v>
+      </c>
+      <c r="I4" s="91">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
-        <v>14</v>
+      <c r="D5">
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
         <v>31</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5">
-        <v>27</v>
-      </c>
       <c r="H5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>6</v>
+      <c r="I5" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
         <v>14</v>
       </c>
-      <c r="F6">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
       </c>
       <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7">
-        <v>28</v>
-      </c>
-      <c r="G7" s="4">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
+      <c r="H7">
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>14</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>18</v>
-      </c>
-      <c r="G8">
         <v>28</v>
       </c>
+      <c r="G8" s="4">
+        <v>29</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20058</v>
+        <v>20057</v>
       </c>
       <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>232</v>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
       </c>
       <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>33</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="I9">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <v>28</v>
-      </c>
-      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
         <v>7</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20061</v>
+        <v>20060</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>138</v>
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>31</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s">
-        <v>86</v>
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20062</v>
+        <v>20061</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>19</v>
-      </c>
-      <c r="F13">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="6">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13">
+        <v>31</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20063</v>
+        <v>20062</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
         <v>14</v>
       </c>
-      <c r="E14" s="6">
-        <v>20</v>
+      <c r="E14">
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>23</v>
-      </c>
-      <c r="G14" s="6">
-        <v>33</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>20063</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6">
+        <v>33</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>20064</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="85" t="s">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>12</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>25</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H16" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002A000000}"/>
+  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0000-00002A000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -71701,10 +71920,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -71713,10 +71932,9 @@
     <col min="2" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="5.8984375" customWidth="1"/>
     <col min="4" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="6" max="6" width="6.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="8" max="9" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -71801,356 +72019,385 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>20053</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4">
+    <row r="4" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>20049</v>
+      </c>
+      <c r="B4" s="92">
+        <v>6</v>
+      </c>
+      <c r="C4" s="91">
+        <v>10</v>
+      </c>
+      <c r="D4" s="91">
+        <v>14</v>
+      </c>
+      <c r="E4" s="91">
+        <v>20</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="91">
         <v>27</v>
       </c>
-      <c r="F4">
-        <v>28</v>
-      </c>
-      <c r="G4">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
+      <c r="H4" s="91">
+        <v>5</v>
+      </c>
+      <c r="I4" s="93" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
       </c>
       <c r="E5" s="4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>19</v>
       </c>
       <c r="F6">
         <v>24</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
       </c>
       <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24</v>
       </c>
-      <c r="F7">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4">
-        <v>29</v>
+      <c r="G7">
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>27</v>
       </c>
-      <c r="G8">
-        <v>35</v>
+      <c r="G8" s="4">
+        <v>29</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
-        <v>8</v>
+      <c r="I8" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20058</v>
+        <v>20057</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>16</v>
-      </c>
       <c r="F9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5</v>
-      </c>
-      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>26</v>
-      </c>
-      <c r="G10" s="4">
         <v>28</v>
       </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10" s="3">
-        <v>11</v>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>17</v>
-      </c>
-      <c r="F11" s="5">
-        <v>25</v>
-      </c>
-      <c r="G11">
+        <v>24</v>
+      </c>
+      <c r="F11">
         <v>26</v>
       </c>
+      <c r="G11" s="4">
+        <v>28</v>
+      </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20061</v>
+        <v>20060</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>23</v>
-      </c>
-      <c r="F12">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="5">
+        <v>25</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12" s="6">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20062</v>
+        <v>20061</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
       </c>
       <c r="G13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20063</v>
+        <v>20062</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>14</v>
-      </c>
-      <c r="F14">
-        <v>14</v>
-      </c>
-      <c r="G14" s="5">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="6">
-        <v>7</v>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>20064</v>
+        <v>20063</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>7</v>
       </c>
       <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>20064</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
         <v>16</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>16</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>25</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>33</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H16" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002B000000}"/>
+  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0000-00002B000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -72159,10 +72406,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -72258,204 +72505,204 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>20053</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4">
+    <row r="4" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>20049</v>
+      </c>
+      <c r="B4" s="92">
+        <v>6</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="93">
+        <v>7</v>
+      </c>
+      <c r="E4" s="91">
+        <v>18</v>
+      </c>
+      <c r="F4" s="88">
+        <v>22</v>
+      </c>
+      <c r="G4" s="94">
         <v>30</v>
       </c>
-      <c r="H4" s="3">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
+      <c r="H4" s="93">
+        <v>3</v>
+      </c>
+      <c r="I4" s="91">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5">
-        <v>26</v>
-      </c>
-      <c r="G5">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>28</v>
       </c>
-      <c r="H6">
-        <v>5</v>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>24</v>
-      </c>
-      <c r="G7" s="4">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <v>31</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="4">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20058</v>
+        <v>20057</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="4">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="4">
+        <v>27</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>7</v>
@@ -72463,151 +72710,180 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>11</v>
       </c>
-      <c r="D11" s="5">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
+      <c r="E11">
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20061</v>
+        <v>20060</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>86</v>
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20062</v>
+        <v>20061</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20063</v>
+        <v>20062</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I14">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>20063</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>20064</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6">
-        <v>5</v>
-      </c>
-      <c r="D15">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16">
         <v>13</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>28</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>31</v>
       </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002C000000}"/>
+  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0000-00002C000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -72616,17 +72892,19 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="6" width="3.5" customWidth="1"/>
+    <col min="3" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
     <col min="9" max="9" width="5.19921875" bestFit="1" customWidth="1"/>
@@ -72714,233 +72992,233 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>20053</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>28</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3">
-        <v>6</v>
+    <row r="4" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>20049</v>
+      </c>
+      <c r="B4" s="92">
+        <v>6</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="89">
+        <v>15</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="91">
+        <v>25</v>
+      </c>
+      <c r="G4" s="93">
+        <v>35</v>
+      </c>
+      <c r="H4" s="93">
+        <v>4</v>
+      </c>
+      <c r="I4" s="94">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5">
-        <v>9</v>
+      <c r="I5" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>15</v>
+      <c r="E6" s="4">
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3">
-        <v>34</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>27</v>
-      </c>
-      <c r="G8">
-        <v>29</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="3">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20058</v>
+        <v>20057</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>17</v>
+      </c>
+      <c r="F9">
         <v>27</v>
       </c>
       <c r="G9">
-        <v>31</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-1</v>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3">
-        <v>32</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>22</v>
-      </c>
-      <c r="G11">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3">
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -72948,28 +73226,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20061</v>
+        <v>20060</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>17</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>9</v>
@@ -72977,93 +73255,122 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20062</v>
+        <v>20061</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6">
-        <v>14</v>
-      </c>
-      <c r="F13" s="6">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
       </c>
       <c r="G13">
         <v>29</v>
       </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="6">
-        <v>7</v>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20063</v>
+        <v>20062</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6">
         <v>14</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>23</v>
       </c>
       <c r="G14">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14">
-        <v>9</v>
+        <v>99</v>
+      </c>
+      <c r="I14" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>20064</v>
+        <v>20063</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>20064</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>25</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>33</v>
       </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002D000000}"/>
+  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0000-00002D000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -73072,10 +73379,10 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -73086,7 +73393,7 @@
     <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="5.8984375" customWidth="1"/>
-    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="3.59765625" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
@@ -73173,356 +73480,385 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>20053</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>26</v>
-      </c>
-      <c r="G4">
-        <v>33</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>87</v>
+    <row r="4" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>20049</v>
+      </c>
+      <c r="B4" s="92">
+        <v>6</v>
+      </c>
+      <c r="C4" s="91">
+        <v>10</v>
+      </c>
+      <c r="D4" s="91">
+        <v>18</v>
+      </c>
+      <c r="E4" s="91">
+        <v>21</v>
+      </c>
+      <c r="F4" s="91">
+        <v>24</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="93">
+        <v>4</v>
+      </c>
+      <c r="I4" s="91">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>32</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
       </c>
       <c r="G7">
         <v>32</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="4">
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20058</v>
+        <v>20057</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>29</v>
       </c>
       <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="F10" s="3">
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>19</v>
       </c>
-      <c r="F11">
-        <v>24</v>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11" s="6">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20061</v>
+        <v>20060</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>116</v>
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
       </c>
       <c r="G12">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="I12" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20062</v>
+        <v>20061</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="G13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20063</v>
+        <v>20062</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>21</v>
-      </c>
-      <c r="F14">
-        <v>26</v>
+      <c r="F14" t="s">
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>20063</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>20064</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6">
-        <v>5</v>
-      </c>
-      <c r="D15" s="85" t="s">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>21</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>33</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>7</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002E000000}"/>
+  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0000-00002E000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -73531,10 +73867,10 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -73631,53 +73967,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>20053</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>86</v>
+    <row r="4" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92">
+        <v>20049</v>
+      </c>
+      <c r="B4" s="92">
+        <v>6</v>
+      </c>
+      <c r="C4" s="93">
+        <v>5</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="91">
+        <v>25</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="93">
+        <v>2</v>
+      </c>
+      <c r="I4" s="93" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20054</v>
+        <v>20053</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
         <v>23</v>
-      </c>
-      <c r="F5">
-        <v>28</v>
       </c>
       <c r="G5">
         <v>31</v>
@@ -73686,301 +74022,330 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20055</v>
+        <v>20054</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3">
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>18</v>
       </c>
       <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
         <v>30</v>
       </c>
-      <c r="G7">
-        <v>35</v>
-      </c>
       <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20058</v>
+        <v>20057</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>32</v>
-      </c>
-      <c r="G9">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>9</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="F11">
-        <v>29</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20061</v>
+        <v>20060</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>26</v>
-      </c>
-      <c r="G12">
-        <v>33</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20062</v>
+        <v>20061</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
         <v>11</v>
       </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
       <c r="E13">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20063</v>
+        <v>20062</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G14">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>4</v>
       </c>
       <c r="I14">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>20064</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>240</v>
+        <v>20063</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>19</v>
       </c>
       <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>33</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>20064</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
         <v>21</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I13" xr:uid="{00000000-0009-0000-0000-00002F000000}"/>
+  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0000-00002F000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
